--- a/江苏电信-组播-高清.xlsx
+++ b/江苏电信-组播-高清.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="19935" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$127</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
   <si>
     <t>节目</t>
   </si>
@@ -28,7 +28,10 @@
     <t>地址</t>
   </si>
   <si>
-    <t>格式输出</t>
+    <t>IGMP输出</t>
+  </si>
+  <si>
+    <t>UDPXY代理输出</t>
   </si>
   <si>
     <t>筛选</t>
@@ -43,7 +46,7 @@
     <t>CCTV-4(HD)</t>
   </si>
   <si>
-    <t>CCTV-7(HD)</t>
+    <t>CCTV-17(HD)</t>
   </si>
   <si>
     <t>CCTV-9(HD)</t>
@@ -127,7 +130,7 @@
     <t>BesTV-4(HD)</t>
   </si>
   <si>
-    <t>超级体育-1(HD)</t>
+    <t>CCTV-5(HD)</t>
   </si>
   <si>
     <t>超级体育-2(HD)</t>
@@ -142,9 +145,6 @@
     <t>电竞世界(HD)</t>
   </si>
   <si>
-    <t>CCTV-5(HD)</t>
-  </si>
-  <si>
     <t>BesTV-6(HD)</t>
   </si>
   <si>
@@ -245,27 +245,6 @@
   </si>
   <si>
     <t>4K测试-6(4K)</t>
-  </si>
-  <si>
-    <t>上海纪实(HD)</t>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>igmp://239.49.1.151:6000</t>
-  </si>
-  <si>
-    <t>快乐垂钓(HD)</t>
-  </si>
-  <si>
-    <t>igmp://239.49.0.114:8000</t>
-  </si>
-  <si>
-    <t>茶频道(HD)</t>
-  </si>
-  <si>
-    <t>igmp://239.49.1.234:6000</t>
   </si>
 </sst>
 </file>
@@ -307,21 +286,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,6 +308,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -343,92 +324,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,7 +340,90 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,7 +444,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,37 +522,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,31 +570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,7 +582,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,79 +618,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,21 +654,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -700,44 +664,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -757,6 +683,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -771,6 +741,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -779,10 +758,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +770,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -939,6 +918,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1259,25 +1244,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E131"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K130" sqref="K130"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="39.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="35" style="2" customWidth="1"/>
+    <col min="5" max="5" width="55.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1293,10 +1279,13 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4">
         <v>129</v>
@@ -1309,11 +1298,15 @@
         <f>IF(A2="#",CONCATENATE(B2,",igmp://239.49.8.",B2,":6000"),CONCATENATE(A2,",igmp://239.49.8.",B2,":6000"))</f>
         <v>CCTV-1(HD),igmp://239.49.8.129:6000</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="5" t="str">
+        <f>IF(A2="#",CONCATENATE(B2,",http://192.168.100.1:8888/udp/239.49.8.",B2,":6000"),CONCATENATE(A2,",http://192.168.100.1:8888/udp/239.49.8.",B2,":6000"))</f>
+        <v>CCTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.129:6000</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>130</v>
@@ -1326,11 +1319,15 @@
         <f t="shared" ref="D3:D34" si="1">IF(A3="#",CONCATENATE(B3,",igmp://239.49.8.",B3,":6000"),CONCATENATE(A3,",igmp://239.49.8.",B3,":6000"))</f>
         <v>CCTV-2(HD),igmp://239.49.8.130:6000</v>
       </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E34" si="2">IF(A3="#",CONCATENATE(B3,",http://192.168.100.1:8888/udp/239.49.8.",B3,":6000"),CONCATENATE(A3,",http://192.168.100.1:8888/udp/239.49.8.",B3,":6000"))</f>
+        <v>CCTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.130:6000</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>131</v>
@@ -1343,11 +1340,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-4(HD),igmp://239.49.8.131:6000</v>
       </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-4(HD),http://192.168.100.1:8888/udp/239.49.8.131:6000</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>132</v>
@@ -1358,13 +1359,17 @@
       </c>
       <c r="D5" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>CCTV-7(HD),igmp://239.49.8.132:6000</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+        <v>CCTV-17(HD),igmp://239.49.8.132:6000</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-17(HD),http://192.168.100.1:8888/udp/239.49.8.132:6000</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>133</v>
@@ -1377,11 +1382,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-9(HD),igmp://239.49.8.133:6000</v>
       </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-9(HD),http://192.168.100.1:8888/udp/239.49.8.133:6000</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>134</v>
@@ -1394,11 +1403,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-10(HD),igmp://239.49.8.134:6000</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-10(HD),http://192.168.100.1:8888/udp/239.49.8.134:6000</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>135</v>
@@ -1411,11 +1424,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-12(HD),igmp://239.49.8.135:6000</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-12(HD),http://192.168.100.1:8888/udp/239.49.8.135:6000</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
         <v>136</v>
@@ -1428,11 +1445,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-14(HD),igmp://239.49.8.136:6000</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-14(HD),http://192.168.100.1:8888/udp/239.49.8.136:6000</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>137</v>
@@ -1445,11 +1466,15 @@
         <f t="shared" si="1"/>
         <v>CCTV-5+(HD),igmp://239.49.8.137:6000</v>
       </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>CCTV-5+(HD),http://192.168.100.1:8888/udp/239.49.8.137:6000</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4">
         <v>138</v>
@@ -1462,11 +1487,15 @@
         <f t="shared" si="1"/>
         <v>江苏卫视(HD),igmp://239.49.8.138:6000</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>江苏卫视(HD),http://192.168.100.1:8888/udp/239.49.8.138:6000</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>139</v>
@@ -1479,11 +1508,15 @@
         <f t="shared" si="1"/>
         <v>浙江卫视(HD),igmp://239.49.8.139:6000</v>
       </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>浙江卫视(HD),http://192.168.100.1:8888/udp/239.49.8.139:6000</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>140</v>
@@ -1496,11 +1529,15 @@
         <f t="shared" si="1"/>
         <v>东方卫视(HD),igmp://239.49.8.140:6000</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>东方卫视(HD),http://192.168.100.1:8888/udp/239.49.8.140:6000</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4">
         <v>141</v>
@@ -1513,11 +1550,15 @@
         <f t="shared" si="1"/>
         <v>北京卫视(HD),igmp://239.49.8.141:6000</v>
       </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>北京卫视(HD),http://192.168.100.1:8888/udp/239.49.8.141:6000</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4">
         <v>142</v>
@@ -1530,11 +1571,15 @@
         <f t="shared" si="1"/>
         <v>湖南卫视(HD),igmp://239.49.8.142:6000</v>
       </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>湖南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.142:6000</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="4">
         <v>143</v>
@@ -1547,11 +1592,15 @@
         <f t="shared" si="1"/>
         <v>广东卫视(HD),igmp://239.49.8.143:6000</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>广东卫视(HD),http://192.168.100.1:8888/udp/239.49.8.143:6000</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="4">
         <v>144</v>
@@ -1564,11 +1613,15 @@
         <f t="shared" si="1"/>
         <v>黑龙江卫视(HD),igmp://239.49.8.144:6000</v>
       </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>黑龙江卫视(HD),http://192.168.100.1:8888/udp/239.49.8.144:6000</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>145</v>
@@ -1581,11 +1634,15 @@
         <f t="shared" si="1"/>
         <v>深圳卫视(HD),igmp://239.49.8.145:6000</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>深圳卫视(HD),http://192.168.100.1:8888/udp/239.49.8.145:6000</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4">
         <v>146</v>
@@ -1598,11 +1655,15 @@
         <f t="shared" si="1"/>
         <v>山东卫视(HD),igmp://239.49.8.146:6000</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>山东卫视(HD),http://192.168.100.1:8888/udp/239.49.8.146:6000</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4">
         <v>147</v>
@@ -1615,11 +1676,15 @@
         <f t="shared" si="1"/>
         <v>湖北卫视(HD),igmp://239.49.8.147:6000</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>湖北卫视(HD),http://192.168.100.1:8888/udp/239.49.8.147:6000</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="4">
         <v>148</v>
@@ -1632,11 +1697,15 @@
         <f t="shared" si="1"/>
         <v>天津卫视(HD),igmp://239.49.8.148:6000</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>天津卫视(HD),http://192.168.100.1:8888/udp/239.49.8.148:6000</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="4">
         <v>149</v>
@@ -1649,11 +1718,15 @@
         <f t="shared" si="1"/>
         <v>重庆卫视(HD),igmp://239.49.8.149:6000</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>重庆卫视(HD),http://192.168.100.1:8888/udp/239.49.8.149:6000</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="4">
         <v>150</v>
@@ -1666,13 +1739,17 @@
         <f t="shared" si="1"/>
         <v>江苏导视(HD),igmp://239.49.8.150:6000</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>江苏导视(HD),http://192.168.100.1:8888/udp/239.49.8.150:6000</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4">
         <v>151</v>
@@ -1685,13 +1762,17 @@
         <f t="shared" si="1"/>
         <v>游戏直播(HD),igmp://239.49.8.151:6000</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>游戏直播(HD),http://192.168.100.1:8888/udp/239.49.8.151:6000</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4">
         <v>152</v>
@@ -1704,13 +1785,17 @@
         <f t="shared" si="1"/>
         <v>英雄联盟(HD),igmp://239.49.8.152:6000</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>英雄联盟(HD),http://192.168.100.1:8888/udp/239.49.8.152:6000</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4">
         <v>153</v>
@@ -1723,13 +1808,17 @@
         <f t="shared" si="1"/>
         <v>快乐购(HD),igmp://239.49.8.153:6000</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>快乐购(HD),http://192.168.100.1:8888/udp/239.49.8.153:6000</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4">
         <v>154</v>
@@ -1742,11 +1831,15 @@
         <f t="shared" si="1"/>
         <v>154,igmp://239.49.8.154:6000</v>
       </c>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>154,http://192.168.100.1:8888/udp/239.49.8.154:6000</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28" s="4">
         <v>155</v>
@@ -1759,11 +1852,15 @@
         <f t="shared" si="1"/>
         <v>155,igmp://239.49.8.155:6000</v>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>155,http://192.168.100.1:8888/udp/239.49.8.155:6000</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" s="4">
         <v>156</v>
@@ -1776,11 +1873,15 @@
         <f t="shared" si="1"/>
         <v>156,igmp://239.49.8.156:6000</v>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>156,http://192.168.100.1:8888/udp/239.49.8.156:6000</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>157</v>
@@ -1793,11 +1894,15 @@
         <f t="shared" si="1"/>
         <v>157,igmp://239.49.8.157:6000</v>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>157,http://192.168.100.1:8888/udp/239.49.8.157:6000</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4">
         <v>158</v>
@@ -1810,11 +1915,15 @@
         <f t="shared" si="1"/>
         <v>158,igmp://239.49.8.158:6000</v>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>158,http://192.168.100.1:8888/udp/239.49.8.158:6000</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4">
         <v>159</v>
@@ -1827,11 +1936,15 @@
         <f t="shared" si="1"/>
         <v>159,igmp://239.49.8.159:6000</v>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>159,http://192.168.100.1:8888/udp/239.49.8.159:6000</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4">
         <v>160</v>
@@ -1844,13 +1957,17 @@
         <f t="shared" si="1"/>
         <v>BesTV-1(HD),igmp://239.49.8.160:6000</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>BesTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.160:6000</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="4">
         <v>161</v>
@@ -1863,13 +1980,17 @@
         <f t="shared" si="1"/>
         <v>BesTV-2(HD),igmp://239.49.8.161:6000</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>BesTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.161:6000</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="4">
         <v>162</v>
@@ -1879,16 +2000,20 @@
         <v>igmp://239.49.8.162:6000</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f t="shared" ref="D35:D66" si="2">IF(A35="#",CONCATENATE(B35,",igmp://239.49.8.",B35,":6000"),CONCATENATE(A35,",igmp://239.49.8.",B35,":6000"))</f>
+        <f t="shared" ref="D35:D66" si="3">IF(A35="#",CONCATENATE(B35,",igmp://239.49.8.",B35,":6000"),CONCATENATE(A35,",igmp://239.49.8.",B35,":6000"))</f>
         <v>BesTV-3(HD),igmp://239.49.8.162:6000</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="5" t="str">
+        <f t="shared" ref="E35:E66" si="4">IF(A35="#",CONCATENATE(B35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"),CONCATENATE(A35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"))</f>
+        <v>BesTV-3(HD),http://192.168.100.1:8888/udp/239.49.8.162:6000</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="4">
         <v>163</v>
@@ -1898,16 +2023,20 @@
         <v>igmp://239.49.8.163:6000</v>
       </c>
       <c r="D36" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BesTV-4(HD),igmp://239.49.8.163:6000</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>BesTV-4(HD),http://192.168.100.1:8888/udp/239.49.8.163:6000</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="4">
         <v>164</v>
@@ -1917,16 +2046,18 @@
         <v>igmp://239.49.8.164:6000</v>
       </c>
       <c r="D37" s="5" t="str">
-        <f t="shared" si="2"/>
-        <v>超级体育-1(HD),igmp://239.49.8.164:6000</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f t="shared" si="3"/>
+        <v>CCTV-5(HD),igmp://239.49.8.164:6000</v>
+      </c>
+      <c r="E37" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CCTV-5(HD),http://192.168.100.1:8888/udp/239.49.8.164:6000</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="4">
         <v>165</v>
@@ -1936,16 +2067,20 @@
         <v>igmp://239.49.8.165:6000</v>
       </c>
       <c r="D38" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>超级体育-2(HD),igmp://239.49.8.165:6000</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="E38" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>超级体育-2(HD),http://192.168.100.1:8888/udp/239.49.8.165:6000</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="4">
         <v>166</v>
@@ -1955,16 +2090,20 @@
         <v>igmp://239.49.8.166:6000</v>
       </c>
       <c r="D39" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BesTV-5(HD),igmp://239.49.8.166:6000</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="E39" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>BesTV-5(HD),http://192.168.100.1:8888/udp/239.49.8.166:6000</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="4">
         <v>167</v>
@@ -1974,14 +2113,18 @@
         <v>igmp://239.49.8.167:6000</v>
       </c>
       <c r="D40" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>167,igmp://239.49.8.167:6000</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>167,http://192.168.100.1:8888/udp/239.49.8.167:6000</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>168</v>
@@ -1991,14 +2134,18 @@
         <v>igmp://239.49.8.168:6000</v>
       </c>
       <c r="D41" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>劲爆体育(HD),igmp://239.49.8.168:6000</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>劲爆体育(HD),http://192.168.100.1:8888/udp/239.49.8.168:6000</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>169</v>
@@ -2008,16 +2155,20 @@
         <v>igmp://239.49.8.169:6000</v>
       </c>
       <c r="D42" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>电竞世界(HD),igmp://239.49.8.169:6000</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>电竞世界(HD),http://192.168.100.1:8888/udp/239.49.8.169:6000</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B43" s="4">
         <v>170</v>
@@ -2027,12 +2178,16 @@
         <v>igmp://239.49.8.170:6000</v>
       </c>
       <c r="D43" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CCTV-5(HD),igmp://239.49.8.170:6000</v>
       </c>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CCTV-5(HD),http://192.168.100.1:8888/udp/239.49.8.170:6000</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -2044,14 +2199,18 @@
         <v>igmp://239.49.8.171:6000</v>
       </c>
       <c r="D44" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BesTV-6(HD),igmp://239.49.8.171:6000</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>BesTV-6(HD),http://192.168.100.1:8888/udp/239.49.8.171:6000</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -2063,14 +2222,18 @@
         <v>igmp://239.49.8.172:6000</v>
       </c>
       <c r="D45" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BesTV-7(HD),igmp://239.49.8.172:6000</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>BesTV-7(HD),http://192.168.100.1:8888/udp/239.49.8.172:6000</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -2082,12 +2245,16 @@
         <v>igmp://239.49.8.173:6000</v>
       </c>
       <c r="D46" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>辽宁卫视(HD),igmp://239.49.8.173:6000</v>
       </c>
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="E46" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>辽宁卫视(HD),http://192.168.100.1:8888/udp/239.49.8.173:6000</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -2099,12 +2266,16 @@
         <v>igmp://239.49.8.174:6000</v>
       </c>
       <c r="D47" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>贵州卫视(HD),igmp://239.49.8.174:6000</v>
       </c>
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E47" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>贵州卫视(HD),http://192.168.100.1:8888/udp/239.49.8.174:6000</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -2116,12 +2287,16 @@
         <v>igmp://239.49.8.175:6000</v>
       </c>
       <c r="D48" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>生活时尚(HD),igmp://239.49.8.175:6000</v>
       </c>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="E48" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>生活时尚(HD),http://192.168.100.1:8888/udp/239.49.8.175:6000</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -2133,14 +2308,18 @@
         <v>igmp://239.49.8.176:6000</v>
       </c>
       <c r="D49" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>游戏风云(HD),igmp://239.49.8.176:6000</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="E49" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>游戏风云(HD),http://192.168.100.1:8888/udp/239.49.8.176:6000</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -2152,14 +2331,18 @@
         <v>igmp://239.49.8.177:6000</v>
       </c>
       <c r="D50" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>幸福彩(HD),igmp://239.49.8.177:6000</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="E50" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>幸福彩(HD),http://192.168.100.1:8888/udp/239.49.8.177:6000</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2171,12 +2354,16 @@
         <v>igmp://239.49.8.178:6000</v>
       </c>
       <c r="D51" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>动漫秀场(HD),igmp://239.49.8.178:6000</v>
       </c>
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="E51" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>动漫秀场(HD),http://192.168.100.1:8888/udp/239.49.8.178:6000</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -2188,12 +2375,16 @@
         <v>igmp://239.49.8.179:6000</v>
       </c>
       <c r="D52" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>全纪实(HD),igmp://239.49.8.179:6000</v>
       </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="E52" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>全纪实(HD),http://192.168.100.1:8888/udp/239.49.8.179:6000</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -2205,12 +2396,16 @@
         <v>igmp://239.49.8.180:6000</v>
       </c>
       <c r="D53" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>都市剧场(HD),igmp://239.49.8.180:6000</v>
       </c>
-      <c r="E53" s="4"/>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="E53" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>都市剧场(HD),http://192.168.100.1:8888/udp/239.49.8.180:6000</v>
+      </c>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
         <v>52</v>
       </c>
@@ -2222,12 +2417,16 @@
         <v>igmp://239.49.8.181:6000</v>
       </c>
       <c r="D54" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>魅力音乐(HD),igmp://239.49.8.181:6000</v>
       </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="E54" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>魅力音乐(HD),http://192.168.100.1:8888/udp/239.49.8.181:6000</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
         <v>53</v>
       </c>
@@ -2239,14 +2438,18 @@
         <v>igmp://239.49.8.182:6000</v>
       </c>
       <c r="D55" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>欢笑剧场(HD),igmp://239.49.8.182:6000</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="E55" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>欢笑剧场(HD),http://192.168.100.1:8888/udp/239.49.8.182:6000</v>
+      </c>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B56" s="4">
         <v>183</v>
@@ -2256,12 +2459,16 @@
         <v>igmp://239.49.8.183:6000</v>
       </c>
       <c r="D56" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>183,igmp://239.49.8.183:6000</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="E56" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>183,http://192.168.100.1:8888/udp/239.49.8.183:6000</v>
+      </c>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
         <v>54</v>
       </c>
@@ -2273,12 +2480,16 @@
         <v>igmp://239.49.8.184:6000</v>
       </c>
       <c r="D57" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>四川卫视(HD),igmp://239.49.8.184:6000</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="E57" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>四川卫视(HD),http://192.168.100.1:8888/udp/239.49.8.184:6000</v>
+      </c>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
         <v>55</v>
       </c>
@@ -2290,12 +2501,16 @@
         <v>igmp://239.49.8.185:6000</v>
       </c>
       <c r="D58" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>江西卫视(HD),igmp://239.49.8.185:6000</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="E58" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>江西卫视(HD),http://192.168.100.1:8888/udp/239.49.8.185:6000</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
         <v>56</v>
       </c>
@@ -2307,12 +2522,16 @@
         <v>igmp://239.49.8.186:6000</v>
       </c>
       <c r="D59" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>东南卫视(HD),igmp://239.49.8.186:6000</v>
       </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="E59" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>东南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.186:6000</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
         <v>57</v>
       </c>
@@ -2324,12 +2543,16 @@
         <v>igmp://239.49.8.187:6000</v>
       </c>
       <c r="D60" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>吉林卫视(HD),igmp://239.49.8.187:6000</v>
       </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="E60" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>吉林卫视(HD),http://192.168.100.1:8888/udp/239.49.8.187:6000</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
         <v>58</v>
       </c>
@@ -2341,12 +2564,16 @@
         <v>igmp://239.49.8.188:6000</v>
       </c>
       <c r="D61" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>河北卫视(HD),igmp://239.49.8.188:6000</v>
       </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="E61" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>河北卫视(HD),http://192.168.100.1:8888/udp/239.49.8.188:6000</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
         <v>59</v>
       </c>
@@ -2358,12 +2585,16 @@
         <v>igmp://239.49.8.189:6000</v>
       </c>
       <c r="D62" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CETV-1(HD),igmp://239.49.8.189:6000</v>
       </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="E62" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>CETV-1(HD),http://192.168.100.1:8888/udp/239.49.8.189:6000</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
         <v>60</v>
       </c>
@@ -2375,14 +2606,18 @@
         <v>igmp://239.49.8.190:6000</v>
       </c>
       <c r="D63" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>东方购物直播(HD),igmp://239.49.8.190:6000</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="E63" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>东方购物直播(HD),http://192.168.100.1:8888/udp/239.49.8.190:6000</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
         <v>61</v>
       </c>
@@ -2394,14 +2629,18 @@
         <v>igmp://239.49.8.191:6000</v>
       </c>
       <c r="D64" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4K测试-1(4K),igmp://239.49.8.191:6000</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="E64" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>4K测试-1(4K),http://192.168.100.1:8888/udp/239.49.8.191:6000</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
         <v>62</v>
       </c>
@@ -2413,14 +2652,18 @@
         <v>igmp://239.49.8.192:6000</v>
       </c>
       <c r="D65" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4K测试-2(4K),igmp://239.49.8.192:6000</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="E65" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>4K测试-2(4K),http://192.168.100.1:8888/udp/239.49.8.192:6000</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
         <v>63</v>
       </c>
@@ -2432,14 +2675,18 @@
         <v>igmp://239.49.8.193:6000</v>
       </c>
       <c r="D66" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>贾汪新闻,igmp://239.49.8.193:6000</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>贾汪新闻,http://192.168.100.1:8888/udp/239.49.8.193:6000</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
         <v>65</v>
       </c>
@@ -2447,18 +2694,22 @@
         <v>194</v>
       </c>
       <c r="C67" s="5" t="str">
-        <f t="shared" ref="C67:C130" si="3">CONCATENATE("igmp://239.49.8.",B67,":6000")</f>
+        <f t="shared" ref="C67:C130" si="5">CONCATENATE("igmp://239.49.8.",B67,":6000")</f>
         <v>igmp://239.49.8.194:6000</v>
       </c>
       <c r="D67" s="5" t="str">
-        <f t="shared" ref="D67:D98" si="4">IF(A67="#",CONCATENATE(B67,",igmp://239.49.8.",B67,":6000"),CONCATENATE(A67,",igmp://239.49.8.",B67,":6000"))</f>
+        <f t="shared" ref="D67:D98" si="6">IF(A67="#",CONCATENATE(B67,",igmp://239.49.8.",B67,":6000"),CONCATENATE(A67,",igmp://239.49.8.",B67,":6000"))</f>
         <v>苏州新闻资讯,igmp://239.49.8.194:6000</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="5" t="str">
+        <f t="shared" ref="E67:E98" si="7">IF(A67="#",CONCATENATE(B67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"),CONCATENATE(A67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"))</f>
+        <v>苏州新闻资讯,http://192.168.100.1:8888/udp/239.49.8.194:6000</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
         <v>66</v>
       </c>
@@ -2466,35 +2717,43 @@
         <v>195</v>
       </c>
       <c r="C68" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.195:6000</v>
       </c>
       <c r="D68" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>优购物,igmp://239.49.8.195:6000</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>优购物,http://192.168.100.1:8888/udp/239.49.8.195:6000</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:6">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B69" s="4">
         <v>196</v>
       </c>
       <c r="C69" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.196:6000</v>
       </c>
       <c r="D69" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>196,igmp://239.49.8.196:6000</v>
       </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>196,http://192.168.100.1:8888/udp/239.49.8.196:6000</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
         <v>67</v>
       </c>
@@ -2502,84 +2761,104 @@
         <v>197</v>
       </c>
       <c r="C70" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.197:6000</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>河南卫视(HD),igmp://239.49.8.197:6000</v>
       </c>
-      <c r="E70" s="4"/>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="E70" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>河南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.197:6000</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B71" s="4">
         <v>198</v>
       </c>
       <c r="C71" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.198:6000</v>
       </c>
       <c r="D71" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198,igmp://239.49.8.198:6000</v>
       </c>
-      <c r="E71" s="4"/>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="E71" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>198,http://192.168.100.1:8888/udp/239.49.8.198:6000</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B72" s="4">
         <v>199</v>
       </c>
       <c r="C72" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.199:6000</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>199,igmp://239.49.8.199:6000</v>
       </c>
-      <c r="E72" s="4"/>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="E72" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>199,http://192.168.100.1:8888/udp/239.49.8.199:6000</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B73" s="4">
         <v>200</v>
       </c>
       <c r="C73" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.200:6000</v>
       </c>
       <c r="D73" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>200,igmp://239.49.8.200:6000</v>
       </c>
-      <c r="E73" s="4"/>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="E73" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>200,http://192.168.100.1:8888/udp/239.49.8.200:6000</v>
+      </c>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="4">
         <v>201</v>
       </c>
       <c r="C74" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.201:6000</v>
       </c>
       <c r="D74" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>201,igmp://239.49.8.201:6000</v>
       </c>
-      <c r="E74" s="4"/>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="E74" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>201,http://192.168.100.1:8888/udp/239.49.8.201:6000</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
         <v>68</v>
       </c>
@@ -2587,16 +2866,20 @@
         <v>202</v>
       </c>
       <c r="C75" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.202:6000</v>
       </c>
       <c r="D75" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>北京纪实(HD),igmp://239.49.8.202:6000</v>
       </c>
-      <c r="E75" s="4"/>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="E75" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>北京纪实(HD),http://192.168.100.1:8888/udp/239.49.8.202:6000</v>
+      </c>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
         <v>69</v>
       </c>
@@ -2604,16 +2887,20 @@
         <v>203</v>
       </c>
       <c r="C76" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.203:6000</v>
       </c>
       <c r="D76" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>金鹰纪实(HD),igmp://239.49.8.203:6000</v>
       </c>
-      <c r="E76" s="4"/>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="E76" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>金鹰纪实(HD),http://192.168.100.1:8888/udp/239.49.8.203:6000</v>
+      </c>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
         <v>70</v>
       </c>
@@ -2621,16 +2908,20 @@
         <v>204</v>
       </c>
       <c r="C77" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.204:6000</v>
       </c>
       <c r="D77" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>安徽卫视(HD),igmp://239.49.8.204:6000</v>
       </c>
-      <c r="E77" s="4"/>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="E77" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>安徽卫视(HD),http://192.168.100.1:8888/udp/239.49.8.204:6000</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="4" t="s">
         <v>71</v>
       </c>
@@ -2638,18 +2929,22 @@
         <v>205</v>
       </c>
       <c r="C78" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.205:6000</v>
       </c>
       <c r="D78" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4K测试-3(4K),igmp://239.49.8.205:6000</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="E78" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>4K测试-3(4K),http://192.168.100.1:8888/udp/239.49.8.205:6000</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
         <v>72</v>
       </c>
@@ -2657,18 +2952,22 @@
         <v>206</v>
       </c>
       <c r="C79" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.206:6000</v>
       </c>
       <c r="D79" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>汽车频道(HD),igmp://239.49.8.206:6000</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="E79" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>汽车频道(HD),http://192.168.100.1:8888/udp/239.49.8.206:6000</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="4" t="s">
         <v>73</v>
       </c>
@@ -2676,18 +2975,22 @@
         <v>207</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.207:6000</v>
       </c>
       <c r="D80" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4K测试-4(4K),igmp://239.49.8.207:6000</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="E80" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>4K测试-4(4K),http://192.168.100.1:8888/udp/239.49.8.207:6000</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
         <v>74</v>
       </c>
@@ -2695,239 +2998,295 @@
         <v>208</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.208:6000</v>
       </c>
       <c r="D81" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4K测试-5(4K),igmp://239.49.8.208:6000</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="E81" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>4K测试-5(4K),http://192.168.100.1:8888/udp/239.49.8.208:6000</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B82" s="4">
         <v>209</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.209:6000</v>
       </c>
       <c r="D82" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>209,igmp://239.49.8.209:6000</v>
       </c>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="E82" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>209,http://192.168.100.1:8888/udp/239.49.8.209:6000</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4">
         <v>210</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.210:6000</v>
       </c>
       <c r="D83" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>210,igmp://239.49.8.210:6000</v>
       </c>
-      <c r="E83" s="4"/>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="1:5">
+      <c r="E83" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>210,http://192.168.100.1:8888/udp/239.49.8.210:6000</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B84" s="4">
         <v>211</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.211:6000</v>
       </c>
       <c r="D84" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>211,igmp://239.49.8.211:6000</v>
       </c>
-      <c r="E84" s="4"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="1:5">
+      <c r="E84" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>211,http://192.168.100.1:8888/udp/239.49.8.211:6000</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" s="2" customFormat="1" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B85" s="4">
         <v>212</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.212:6000</v>
       </c>
       <c r="D85" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>212,igmp://239.49.8.212:6000</v>
       </c>
-      <c r="E85" s="4"/>
-    </row>
-    <row r="86" s="2" customFormat="1" spans="1:5">
+      <c r="E85" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>212,http://192.168.100.1:8888/udp/239.49.8.212:6000</v>
+      </c>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" s="2" customFormat="1" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B86" s="4">
         <v>213</v>
       </c>
       <c r="C86" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.213:6000</v>
       </c>
       <c r="D86" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>213,igmp://239.49.8.213:6000</v>
       </c>
-      <c r="E86" s="4"/>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="E86" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>213,http://192.168.100.1:8888/udp/239.49.8.213:6000</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B87" s="4">
         <v>214</v>
       </c>
       <c r="C87" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.214:6000</v>
       </c>
       <c r="D87" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>214,igmp://239.49.8.214:6000</v>
       </c>
-      <c r="E87" s="4"/>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="E87" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>214,http://192.168.100.1:8888/udp/239.49.8.214:6000</v>
+      </c>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B88" s="4">
         <v>215</v>
       </c>
       <c r="C88" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.215:6000</v>
       </c>
       <c r="D88" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>215,igmp://239.49.8.215:6000</v>
       </c>
-      <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="E88" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>215,http://192.168.100.1:8888/udp/239.49.8.215:6000</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B89" s="4">
         <v>216</v>
       </c>
       <c r="C89" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.216:6000</v>
       </c>
       <c r="D89" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>216,igmp://239.49.8.216:6000</v>
       </c>
-      <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="E89" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>216,http://192.168.100.1:8888/udp/239.49.8.216:6000</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B90" s="4">
         <v>217</v>
       </c>
       <c r="C90" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.217:6000</v>
       </c>
       <c r="D90" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>217,igmp://239.49.8.217:6000</v>
       </c>
-      <c r="E90" s="4"/>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="E90" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>217,http://192.168.100.1:8888/udp/239.49.8.217:6000</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B91" s="4">
         <v>218</v>
       </c>
       <c r="C91" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.218:6000</v>
       </c>
       <c r="D91" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>218,igmp://239.49.8.218:6000</v>
       </c>
-      <c r="E91" s="4"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="E91" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>218,http://192.168.100.1:8888/udp/239.49.8.218:6000</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B92" s="4">
         <v>219</v>
       </c>
       <c r="C92" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.219:6000</v>
       </c>
       <c r="D92" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>219,igmp://239.49.8.219:6000</v>
       </c>
-      <c r="E92" s="4"/>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="E92" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>219,http://192.168.100.1:8888/udp/239.49.8.219:6000</v>
+      </c>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B93" s="4">
         <v>220</v>
       </c>
       <c r="C93" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.220:6000</v>
       </c>
       <c r="D93" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>220,igmp://239.49.8.220:6000</v>
       </c>
-      <c r="E93" s="4"/>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="E93" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>220,http://192.168.100.1:8888/udp/239.49.8.220:6000</v>
+      </c>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B94" s="4">
         <v>221</v>
       </c>
       <c r="C94" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.221:6000</v>
       </c>
       <c r="D94" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>221,igmp://239.49.8.221:6000</v>
       </c>
-      <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="E94" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>221,http://192.168.100.1:8888/udp/239.49.8.221:6000</v>
+      </c>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
         <v>75</v>
       </c>
@@ -2935,617 +3294,695 @@
         <v>222</v>
       </c>
       <c r="C95" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.222:6000</v>
       </c>
       <c r="D95" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4K测试-6(4K),igmp://239.49.8.222:6000</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="E95" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>4K测试-6(4K),http://192.168.100.1:8888/udp/239.49.8.222:6000</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B96" s="4">
         <v>223</v>
       </c>
       <c r="C96" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.223:6000</v>
       </c>
       <c r="D96" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>223,igmp://239.49.8.223:6000</v>
       </c>
-      <c r="E96" s="4"/>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="E96" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>223,http://192.168.100.1:8888/udp/239.49.8.223:6000</v>
+      </c>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B97" s="4">
         <v>224</v>
       </c>
       <c r="C97" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.224:6000</v>
       </c>
       <c r="D97" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>224,igmp://239.49.8.224:6000</v>
       </c>
-      <c r="E97" s="4"/>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="E97" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>224,http://192.168.100.1:8888/udp/239.49.8.224:6000</v>
+      </c>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B98" s="4">
         <v>225</v>
       </c>
       <c r="C98" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.225:6000</v>
       </c>
       <c r="D98" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>225,igmp://239.49.8.225:6000</v>
       </c>
-      <c r="E98" s="4"/>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="E98" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>225,http://192.168.100.1:8888/udp/239.49.8.225:6000</v>
+      </c>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B99" s="4">
         <v>226</v>
       </c>
       <c r="C99" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.226:6000</v>
       </c>
       <c r="D99" s="5" t="str">
-        <f t="shared" ref="D99:D127" si="5">IF(A99="#",CONCATENATE(B99,",igmp://239.49.8.",B99,":6000"),CONCATENATE(A99,",igmp://239.49.8.",B99,":6000"))</f>
+        <f t="shared" ref="D99:D127" si="8">IF(A99="#",CONCATENATE(B99,",igmp://239.49.8.",B99,":6000"),CONCATENATE(A99,",igmp://239.49.8.",B99,":6000"))</f>
         <v>226,igmp://239.49.8.226:6000</v>
       </c>
-      <c r="E99" s="4"/>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="E99" s="5" t="str">
+        <f t="shared" ref="E99:E127" si="9">IF(A99="#",CONCATENATE(B99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"),CONCATENATE(A99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"))</f>
+        <v>226,http://192.168.100.1:8888/udp/239.49.8.226:6000</v>
+      </c>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B100" s="4">
         <v>227</v>
       </c>
       <c r="C100" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.227:6000</v>
       </c>
       <c r="D100" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>227,igmp://239.49.8.227:6000</v>
       </c>
-      <c r="E100" s="4"/>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="E100" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>227,http://192.168.100.1:8888/udp/239.49.8.227:6000</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B101" s="4">
         <v>228</v>
       </c>
       <c r="C101" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.228:6000</v>
       </c>
       <c r="D101" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>228,igmp://239.49.8.228:6000</v>
       </c>
-      <c r="E101" s="4"/>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="E101" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>228,http://192.168.100.1:8888/udp/239.49.8.228:6000</v>
+      </c>
+      <c r="F101" s="4"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B102" s="4">
         <v>229</v>
       </c>
       <c r="C102" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.229:6000</v>
       </c>
       <c r="D102" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>229,igmp://239.49.8.229:6000</v>
       </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="E102" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>229,http://192.168.100.1:8888/udp/239.49.8.229:6000</v>
+      </c>
+      <c r="F102" s="4"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B103" s="4">
         <v>230</v>
       </c>
       <c r="C103" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.230:6000</v>
       </c>
       <c r="D103" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>230,igmp://239.49.8.230:6000</v>
       </c>
-      <c r="E103" s="4"/>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="E103" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>230,http://192.168.100.1:8888/udp/239.49.8.230:6000</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B104" s="4">
         <v>231</v>
       </c>
       <c r="C104" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.231:6000</v>
       </c>
       <c r="D104" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>231,igmp://239.49.8.231:6000</v>
       </c>
-      <c r="E104" s="4"/>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="E104" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>231,http://192.168.100.1:8888/udp/239.49.8.231:6000</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B105" s="4">
         <v>232</v>
       </c>
       <c r="C105" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.232:6000</v>
       </c>
       <c r="D105" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>232,igmp://239.49.8.232:6000</v>
       </c>
-      <c r="E105" s="4"/>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="E105" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>232,http://192.168.100.1:8888/udp/239.49.8.232:6000</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B106" s="4">
         <v>233</v>
       </c>
       <c r="C106" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.233:6000</v>
       </c>
       <c r="D106" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>233,igmp://239.49.8.233:6000</v>
       </c>
-      <c r="E106" s="4"/>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="E106" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>233,http://192.168.100.1:8888/udp/239.49.8.233:6000</v>
+      </c>
+      <c r="F106" s="4"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B107" s="4">
         <v>234</v>
       </c>
       <c r="C107" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.234:6000</v>
       </c>
       <c r="D107" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>234,igmp://239.49.8.234:6000</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="E107" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>234,http://192.168.100.1:8888/udp/239.49.8.234:6000</v>
+      </c>
+      <c r="F107" s="4"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B108" s="4">
         <v>235</v>
       </c>
       <c r="C108" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.235:6000</v>
       </c>
       <c r="D108" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>235,igmp://239.49.8.235:6000</v>
       </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="E108" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>235,http://192.168.100.1:8888/udp/239.49.8.235:6000</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B109" s="4">
         <v>236</v>
       </c>
       <c r="C109" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.236:6000</v>
       </c>
       <c r="D109" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>236,igmp://239.49.8.236:6000</v>
       </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="E109" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>236,http://192.168.100.1:8888/udp/239.49.8.236:6000</v>
+      </c>
+      <c r="F109" s="4"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B110" s="4">
         <v>237</v>
       </c>
       <c r="C110" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.237:6000</v>
       </c>
       <c r="D110" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>237,igmp://239.49.8.237:6000</v>
       </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="E110" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>237,http://192.168.100.1:8888/udp/239.49.8.237:6000</v>
+      </c>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B111" s="4">
         <v>238</v>
       </c>
       <c r="C111" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.238:6000</v>
       </c>
       <c r="D111" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>238,igmp://239.49.8.238:6000</v>
       </c>
-      <c r="E111" s="4"/>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="E111" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>238,http://192.168.100.1:8888/udp/239.49.8.238:6000</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B112" s="4">
         <v>239</v>
       </c>
       <c r="C112" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.239:6000</v>
       </c>
       <c r="D112" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>239,igmp://239.49.8.239:6000</v>
       </c>
-      <c r="E112" s="4"/>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="E112" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>239,http://192.168.100.1:8888/udp/239.49.8.239:6000</v>
+      </c>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B113" s="4">
         <v>240</v>
       </c>
       <c r="C113" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.240:6000</v>
       </c>
       <c r="D113" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>240,igmp://239.49.8.240:6000</v>
       </c>
-      <c r="E113" s="4"/>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="E113" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>240,http://192.168.100.1:8888/udp/239.49.8.240:6000</v>
+      </c>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B114" s="4">
         <v>241</v>
       </c>
       <c r="C114" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.241:6000</v>
       </c>
       <c r="D114" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>241,igmp://239.49.8.241:6000</v>
       </c>
-      <c r="E114" s="4"/>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="E114" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>241,http://192.168.100.1:8888/udp/239.49.8.241:6000</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B115" s="4">
         <v>242</v>
       </c>
       <c r="C115" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.242:6000</v>
       </c>
       <c r="D115" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>242,igmp://239.49.8.242:6000</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="E115" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>242,http://192.168.100.1:8888/udp/239.49.8.242:6000</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B116" s="4">
         <v>243</v>
       </c>
       <c r="C116" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.243:6000</v>
       </c>
       <c r="D116" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>243,igmp://239.49.8.243:6000</v>
       </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="E116" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>243,http://192.168.100.1:8888/udp/239.49.8.243:6000</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B117" s="4">
         <v>244</v>
       </c>
       <c r="C117" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.244:6000</v>
       </c>
       <c r="D117" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>244,igmp://239.49.8.244:6000</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="E117" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>244,http://192.168.100.1:8888/udp/239.49.8.244:6000</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B118" s="4">
         <v>245</v>
       </c>
       <c r="C118" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.245:6000</v>
       </c>
       <c r="D118" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>245,igmp://239.49.8.245:6000</v>
       </c>
-      <c r="E118" s="4"/>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="E118" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>245,http://192.168.100.1:8888/udp/239.49.8.245:6000</v>
+      </c>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B119" s="4">
         <v>246</v>
       </c>
       <c r="C119" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.246:6000</v>
       </c>
       <c r="D119" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>246,igmp://239.49.8.246:6000</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="E119" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>246,http://192.168.100.1:8888/udp/239.49.8.246:6000</v>
+      </c>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B120" s="4">
         <v>247</v>
       </c>
       <c r="C120" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.247:6000</v>
       </c>
       <c r="D120" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>247,igmp://239.49.8.247:6000</v>
       </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="E120" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>247,http://192.168.100.1:8888/udp/239.49.8.247:6000</v>
+      </c>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B121" s="4">
         <v>248</v>
       </c>
       <c r="C121" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.248:6000</v>
       </c>
       <c r="D121" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>248,igmp://239.49.8.248:6000</v>
       </c>
-      <c r="E121" s="4"/>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="E121" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>248,http://192.168.100.1:8888/udp/239.49.8.248:6000</v>
+      </c>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B122" s="4">
         <v>249</v>
       </c>
       <c r="C122" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.249:6000</v>
       </c>
       <c r="D122" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>249,igmp://239.49.8.249:6000</v>
       </c>
-      <c r="E122" s="4"/>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="E122" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>249,http://192.168.100.1:8888/udp/239.49.8.249:6000</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B123" s="4">
         <v>250</v>
       </c>
       <c r="C123" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.250:6000</v>
       </c>
       <c r="D123" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>250,igmp://239.49.8.250:6000</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="E123" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>250,http://192.168.100.1:8888/udp/239.49.8.250:6000</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B124" s="4">
         <v>251</v>
       </c>
       <c r="C124" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.251:6000</v>
       </c>
       <c r="D124" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>251,igmp://239.49.8.251:6000</v>
       </c>
-      <c r="E124" s="4"/>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="E124" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>251,http://192.168.100.1:8888/udp/239.49.8.251:6000</v>
+      </c>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B125" s="4">
         <v>252</v>
       </c>
       <c r="C125" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.252:6000</v>
       </c>
       <c r="D125" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>252,igmp://239.49.8.252:6000</v>
       </c>
-      <c r="E125" s="4"/>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="E125" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>252,http://192.168.100.1:8888/udp/239.49.8.252:6000</v>
+      </c>
+      <c r="F125" s="4"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B126" s="4">
         <v>253</v>
       </c>
       <c r="C126" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.253:6000</v>
       </c>
       <c r="D126" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>253,igmp://239.49.8.253:6000</v>
       </c>
-      <c r="E126" s="4"/>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="E126" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>253,http://192.168.100.1:8888/udp/239.49.8.253:6000</v>
+      </c>
+      <c r="F126" s="4"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B127" s="4">
         <v>254</v>
       </c>
       <c r="C127" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>igmp://239.49.8.254:6000</v>
       </c>
       <c r="D127" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>254,igmp://239.49.8.254:6000</v>
       </c>
-      <c r="E127" s="4"/>
-    </row>
-    <row r="129" s="2" customFormat="1" spans="1:5">
-      <c r="A129" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D129" s="5" t="str">
-        <f>CONCATENATE(A129,",",C129)</f>
-        <v>上海纪实(HD),igmp://239.49.1.151:6000</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="130" s="2" customFormat="1" spans="1:5">
-      <c r="A130" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D130" s="5" t="str">
-        <f>CONCATENATE(A130,",",C130)</f>
-        <v>快乐垂钓(HD),igmp://239.49.0.114:8000</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="131" s="2" customFormat="1" spans="1:5">
-      <c r="A131" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D131" s="5" t="str">
-        <f>CONCATENATE(A131,",",C131)</f>
-        <v>茶频道(HD),igmp://239.49.1.234:6000</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>77</v>
-      </c>
+      <c r="E127" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>254,http://192.168.100.1:8888/udp/239.49.8.254:6000</v>
+      </c>
+      <c r="F127" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E131">
+  <autoFilter ref="A1:F127">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/江苏电信-组播-高清.xlsx
+++ b/江苏电信-组播-高清.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>节目</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>4K测试-5(4K)</t>
+  </si>
+  <si>
+    <t>广西卫视(HD)</t>
   </si>
   <si>
     <t>4K测试-6(4K)</t>
@@ -252,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -286,7 +289,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,15 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,24 +410,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,8 +424,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,139 +447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +477,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +507,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,17 +656,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,15 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -727,17 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,10 +761,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,137 +773,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,12 +921,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1247,9 +1244,9 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1302,7 +1299,7 @@
         <f>IF(A2="#",CONCATENATE(B2,",http://192.168.100.1:8888/udp/239.49.8.",B2,":6000"),CONCATENATE(A2,",http://192.168.100.1:8888/udp/239.49.8.",B2,":6000"))</f>
         <v>CCTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.129:6000</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
@@ -1323,7 +1320,7 @@
         <f t="shared" ref="E3:E34" si="2">IF(A3="#",CONCATENATE(B3,",http://192.168.100.1:8888/udp/239.49.8.",B3,":6000"),CONCATENATE(A3,",http://192.168.100.1:8888/udp/239.49.8.",B3,":6000"))</f>
         <v>CCTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.130:6000</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
@@ -1344,7 +1341,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-4(HD),http://192.168.100.1:8888/udp/239.49.8.131:6000</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
@@ -1365,7 +1362,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-17(HD),http://192.168.100.1:8888/udp/239.49.8.132:6000</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
@@ -1386,7 +1383,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-9(HD),http://192.168.100.1:8888/udp/239.49.8.133:6000</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
@@ -1407,7 +1404,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-10(HD),http://192.168.100.1:8888/udp/239.49.8.134:6000</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
@@ -1428,7 +1425,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-12(HD),http://192.168.100.1:8888/udp/239.49.8.135:6000</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
@@ -1449,7 +1446,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-14(HD),http://192.168.100.1:8888/udp/239.49.8.136:6000</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
@@ -1470,7 +1467,7 @@
         <f t="shared" si="2"/>
         <v>CCTV-5+(HD),http://192.168.100.1:8888/udp/239.49.8.137:6000</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
@@ -1491,7 +1488,7 @@
         <f t="shared" si="2"/>
         <v>江苏卫视(HD),http://192.168.100.1:8888/udp/239.49.8.138:6000</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
@@ -1512,7 +1509,7 @@
         <f t="shared" si="2"/>
         <v>浙江卫视(HD),http://192.168.100.1:8888/udp/239.49.8.139:6000</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4" t="s">
@@ -1533,7 +1530,7 @@
         <f t="shared" si="2"/>
         <v>东方卫视(HD),http://192.168.100.1:8888/udp/239.49.8.140:6000</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4" t="s">
@@ -1554,7 +1551,7 @@
         <f t="shared" si="2"/>
         <v>北京卫视(HD),http://192.168.100.1:8888/udp/239.49.8.141:6000</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
@@ -1575,7 +1572,7 @@
         <f t="shared" si="2"/>
         <v>湖南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.142:6000</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
@@ -1596,7 +1593,7 @@
         <f t="shared" si="2"/>
         <v>广东卫视(HD),http://192.168.100.1:8888/udp/239.49.8.143:6000</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
@@ -1617,7 +1614,7 @@
         <f t="shared" si="2"/>
         <v>黑龙江卫视(HD),http://192.168.100.1:8888/udp/239.49.8.144:6000</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
@@ -1638,7 +1635,7 @@
         <f t="shared" si="2"/>
         <v>深圳卫视(HD),http://192.168.100.1:8888/udp/239.49.8.145:6000</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
@@ -1659,7 +1656,7 @@
         <f t="shared" si="2"/>
         <v>山东卫视(HD),http://192.168.100.1:8888/udp/239.49.8.146:6000</v>
       </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4" t="s">
@@ -1680,7 +1677,7 @@
         <f t="shared" si="2"/>
         <v>湖北卫视(HD),http://192.168.100.1:8888/udp/239.49.8.147:6000</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
@@ -2403,7 +2400,7 @@
         <f t="shared" si="4"/>
         <v>都市剧场(HD),http://192.168.100.1:8888/udp/239.49.8.180:6000</v>
       </c>
-      <c r="F53" s="6"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
@@ -2424,7 +2421,7 @@
         <f t="shared" si="4"/>
         <v>魅力音乐(HD),http://192.168.100.1:8888/udp/239.49.8.181:6000</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
@@ -2445,7 +2442,7 @@
         <f t="shared" si="4"/>
         <v>欢笑剧场(HD),http://192.168.100.1:8888/udp/239.49.8.182:6000</v>
       </c>
-      <c r="F55" s="6"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
@@ -2466,7 +2463,7 @@
         <f t="shared" si="4"/>
         <v>183,http://192.168.100.1:8888/udp/239.49.8.183:6000</v>
       </c>
-      <c r="F56" s="6"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
@@ -2487,7 +2484,7 @@
         <f t="shared" si="4"/>
         <v>四川卫视(HD),http://192.168.100.1:8888/udp/239.49.8.184:6000</v>
       </c>
-      <c r="F57" s="6"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
@@ -3015,7 +3012,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B82" s="4">
         <v>209</v>
@@ -3026,11 +3023,11 @@
       </c>
       <c r="D82" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>209,igmp://239.49.8.209:6000</v>
+        <v>广西卫视(HD),igmp://239.49.8.209:6000</v>
       </c>
       <c r="E82" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>209,http://192.168.100.1:8888/udp/239.49.8.209:6000</v>
+        <v>广西卫视(HD),http://192.168.100.1:8888/udp/239.49.8.209:6000</v>
       </c>
       <c r="F82" s="4"/>
     </row>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B95" s="4">
         <v>222</v>

--- a/江苏电信-组播-高清.xlsx
+++ b/江苏电信-组播-高清.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="19935" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
   <si>
     <t>节目</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>广西卫视(HD)</t>
+  </si>
+  <si>
+    <t>海南卫视(HD)</t>
   </si>
   <si>
     <t>4K测试-6(4K)</t>
@@ -255,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -289,30 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,7 +330,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,6 +357,43 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -397,14 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,21 +430,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,13 +450,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,25 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,127 +618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,26 +659,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -695,6 +689,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -706,6 +709,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -730,21 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -761,10 +764,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -773,133 +776,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1244,9 +1247,9 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -3075,7 +3078,7 @@
     </row>
     <row r="85" s="2" customFormat="1" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B85" s="4">
         <v>212</v>
@@ -3086,11 +3089,11 @@
       </c>
       <c r="D85" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>212,igmp://239.49.8.212:6000</v>
+        <v>海南卫视(HD),igmp://239.49.8.212:6000</v>
       </c>
       <c r="E85" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>212,http://192.168.100.1:8888/udp/239.49.8.212:6000</v>
+        <v>海南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.212:6000</v>
       </c>
       <c r="F85" s="4"/>
     </row>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B95" s="4">
         <v>222</v>

--- a/江苏电信-组播-高清.xlsx
+++ b/江苏电信-组播-高清.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>节目</t>
   </si>
@@ -118,6 +118,30 @@
     <t>#</t>
   </si>
   <si>
+    <t>学而思网校1(HD)</t>
+  </si>
+  <si>
+    <t>学而思网校2(HD)</t>
+  </si>
+  <si>
+    <t>学而思网校3(HD)</t>
+  </si>
+  <si>
+    <t>学而思网校4(HD)</t>
+  </si>
+  <si>
+    <t>CCTV-5(HD)</t>
+  </si>
+  <si>
+    <t>学而思网校5(HD)</t>
+  </si>
+  <si>
+    <t>学而思网校6(HD)</t>
+  </si>
+  <si>
+    <t>劲爆体育(HD)</t>
+  </si>
+  <si>
     <t>BesTV-1(HD)</t>
   </si>
   <si>
@@ -127,30 +151,6 @@
     <t>BesTV-3(HD)</t>
   </si>
   <si>
-    <t>BesTV-4(HD)</t>
-  </si>
-  <si>
-    <t>CCTV-5(HD)</t>
-  </si>
-  <si>
-    <t>超级体育-2(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-5(HD)</t>
-  </si>
-  <si>
-    <t>劲爆体育(HD)</t>
-  </si>
-  <si>
-    <t>电竞世界(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-6(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-7(HD)</t>
-  </si>
-  <si>
     <t>辽宁卫视(HD)</t>
   </si>
   <si>
@@ -199,9 +199,6 @@
     <t>CETV-1(HD)</t>
   </si>
   <si>
-    <t>东方购物直播(HD)</t>
-  </si>
-  <si>
     <t>4K测试-1(4K)</t>
   </si>
   <si>
@@ -214,7 +211,7 @@
     <t>普清</t>
   </si>
   <si>
-    <t>苏州新闻资讯</t>
+    <t>苏州生活资讯</t>
   </si>
   <si>
     <t>优购物</t>
@@ -258,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -298,9 +295,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,54 +362,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,16 +393,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,37 +425,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,13 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,19 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +507,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +549,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -552,85 +633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,17 +662,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,22 +705,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,15 +754,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -764,10 +767,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,137 +779,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +927,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1247,9 +1253,9 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1743,7 +1749,7 @@
         <f t="shared" si="2"/>
         <v>江苏导视(HD),http://192.168.100.1:8888/udp/239.49.8.150:6000</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1766,7 +1772,7 @@
         <f t="shared" si="2"/>
         <v>游戏直播(HD),http://192.168.100.1:8888/udp/239.49.8.151:6000</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1789,7 +1795,7 @@
         <f t="shared" si="2"/>
         <v>英雄联盟(HD),http://192.168.100.1:8888/udp/239.49.8.152:6000</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1812,7 +1818,7 @@
         <f t="shared" si="2"/>
         <v>快乐购(HD),http://192.168.100.1:8888/udp/239.49.8.153:6000</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1835,7 +1841,7 @@
         <f t="shared" si="2"/>
         <v>154,http://192.168.100.1:8888/udp/239.49.8.154:6000</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
@@ -1856,7 +1862,7 @@
         <f t="shared" si="2"/>
         <v>155,http://192.168.100.1:8888/udp/239.49.8.155:6000</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
@@ -1877,7 +1883,7 @@
         <f t="shared" si="2"/>
         <v>156,http://192.168.100.1:8888/udp/239.49.8.156:6000</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
@@ -1898,7 +1904,7 @@
         <f t="shared" si="2"/>
         <v>157,http://192.168.100.1:8888/udp/239.49.8.157:6000</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
@@ -1919,7 +1925,7 @@
         <f t="shared" si="2"/>
         <v>158,http://192.168.100.1:8888/udp/239.49.8.158:6000</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
@@ -1940,7 +1946,7 @@
         <f t="shared" si="2"/>
         <v>159,http://192.168.100.1:8888/udp/239.49.8.159:6000</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
@@ -1955,15 +1961,13 @@
       </c>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>BesTV-1(HD),igmp://239.49.8.160:6000</v>
+        <v>学而思网校1(HD),igmp://239.49.8.160:6000</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>BesTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.160:6000</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校1(HD),http://192.168.100.1:8888/udp/239.49.8.160:6000</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="s">
@@ -1978,15 +1982,13 @@
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>BesTV-2(HD),igmp://239.49.8.161:6000</v>
+        <v>学而思网校2(HD),igmp://239.49.8.161:6000</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>BesTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.161:6000</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校2(HD),http://192.168.100.1:8888/udp/239.49.8.161:6000</v>
+      </c>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
@@ -2001,15 +2003,13 @@
       </c>
       <c r="D35" s="5" t="str">
         <f t="shared" ref="D35:D66" si="3">IF(A35="#",CONCATENATE(B35,",igmp://239.49.8.",B35,":6000"),CONCATENATE(A35,",igmp://239.49.8.",B35,":6000"))</f>
-        <v>BesTV-3(HD),igmp://239.49.8.162:6000</v>
+        <v>学而思网校3(HD),igmp://239.49.8.162:6000</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" ref="E35:E66" si="4">IF(A35="#",CONCATENATE(B35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"),CONCATENATE(A35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"))</f>
-        <v>BesTV-3(HD),http://192.168.100.1:8888/udp/239.49.8.162:6000</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校3(HD),http://192.168.100.1:8888/udp/239.49.8.162:6000</v>
+      </c>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
@@ -2024,15 +2024,13 @@
       </c>
       <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-4(HD),igmp://239.49.8.163:6000</v>
+        <v>学而思网校4(HD),igmp://239.49.8.163:6000</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-4(HD),http://192.168.100.1:8888/udp/239.49.8.163:6000</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校4(HD),http://192.168.100.1:8888/udp/239.49.8.163:6000</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
@@ -2068,15 +2066,13 @@
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>超级体育-2(HD),igmp://239.49.8.165:6000</v>
+        <v>学而思网校5(HD),igmp://239.49.8.165:6000</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>超级体育-2(HD),http://192.168.100.1:8888/udp/239.49.8.165:6000</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校5(HD),http://192.168.100.1:8888/udp/239.49.8.165:6000</v>
+      </c>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
@@ -2091,15 +2087,13 @@
       </c>
       <c r="D39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-5(HD),igmp://239.49.8.166:6000</v>
+        <v>学而思网校6(HD),igmp://239.49.8.166:6000</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-5(HD),http://192.168.100.1:8888/udp/239.49.8.166:6000</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>学而思网校6(HD),http://192.168.100.1:8888/udp/239.49.8.166:6000</v>
+      </c>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
@@ -2120,7 +2114,7 @@
         <f t="shared" si="4"/>
         <v>167,http://192.168.100.1:8888/udp/239.49.8.167:6000</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
@@ -2156,13 +2150,13 @@
       </c>
       <c r="D42" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>电竞世界(HD),igmp://239.49.8.169:6000</v>
+        <v>BesTV-1(HD),igmp://239.49.8.169:6000</v>
       </c>
       <c r="E42" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>电竞世界(HD),http://192.168.100.1:8888/udp/239.49.8.169:6000</v>
-      </c>
-      <c r="F42" s="4" t="s">
+        <v>BesTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.169:6000</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2200,13 +2194,13 @@
       </c>
       <c r="D44" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-6(HD),igmp://239.49.8.171:6000</v>
+        <v>BesTV-2(HD),igmp://239.49.8.171:6000</v>
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-6(HD),http://192.168.100.1:8888/udp/239.49.8.171:6000</v>
-      </c>
-      <c r="F44" s="4" t="s">
+        <v>BesTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.171:6000</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2223,13 +2217,13 @@
       </c>
       <c r="D45" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-7(HD),igmp://239.49.8.172:6000</v>
+        <v>BesTV-3(HD),igmp://239.49.8.172:6000</v>
       </c>
       <c r="E45" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-7(HD),http://192.168.100.1:8888/udp/239.49.8.172:6000</v>
-      </c>
-      <c r="F45" s="4" t="s">
+        <v>BesTV-3(HD),http://192.168.100.1:8888/udp/239.49.8.172:6000</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2315,7 +2309,7 @@
         <f t="shared" si="4"/>
         <v>游戏风云(HD),http://192.168.100.1:8888/udp/239.49.8.176:6000</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2338,7 +2332,7 @@
         <f t="shared" si="4"/>
         <v>幸福彩(HD),http://192.168.100.1:8888/udp/239.49.8.177:6000</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2466,7 +2460,7 @@
         <f t="shared" si="4"/>
         <v>183,http://192.168.100.1:8888/udp/239.49.8.183:6000</v>
       </c>
-      <c r="F56" s="4"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
@@ -2596,7 +2590,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B63" s="4">
         <v>190</v>
@@ -2607,19 +2601,19 @@
       </c>
       <c r="D63" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>东方购物直播(HD),igmp://239.49.8.190:6000</v>
+        <v>190,igmp://239.49.8.190:6000</v>
       </c>
       <c r="E63" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>东方购物直播(HD),http://192.168.100.1:8888/udp/239.49.8.190:6000</v>
-      </c>
-      <c r="F63" s="4" t="s">
+        <v>190,http://192.168.100.1:8888/udp/239.49.8.190:6000</v>
+      </c>
+      <c r="F63" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B64" s="4">
         <v>191</v>
@@ -2636,13 +2630,13 @@
         <f t="shared" si="4"/>
         <v>4K测试-1(4K),http://192.168.100.1:8888/udp/239.49.8.191:6000</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" s="4">
         <v>192</v>
@@ -2659,13 +2653,13 @@
         <f t="shared" si="4"/>
         <v>4K测试-2(4K),http://192.168.100.1:8888/udp/239.49.8.192:6000</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B66" s="4">
         <v>193</v>
@@ -2682,13 +2676,13 @@
         <f t="shared" si="4"/>
         <v>贾汪新闻,http://192.168.100.1:8888/udp/239.49.8.193:6000</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>64</v>
+      <c r="F66" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="4">
         <v>194</v>
@@ -2699,19 +2693,19 @@
       </c>
       <c r="D67" s="5" t="str">
         <f t="shared" ref="D67:D98" si="6">IF(A67="#",CONCATENATE(B67,",igmp://239.49.8.",B67,":6000"),CONCATENATE(A67,",igmp://239.49.8.",B67,":6000"))</f>
-        <v>苏州新闻资讯,igmp://239.49.8.194:6000</v>
+        <v>苏州生活资讯,igmp://239.49.8.194:6000</v>
       </c>
       <c r="E67" s="5" t="str">
         <f t="shared" ref="E67:E98" si="7">IF(A67="#",CONCATENATE(B67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"),CONCATENATE(A67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"))</f>
-        <v>苏州新闻资讯,http://192.168.100.1:8888/udp/239.49.8.194:6000</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>64</v>
+        <v>苏州生活资讯,http://192.168.100.1:8888/udp/239.49.8.194:6000</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="4">
         <v>195</v>
@@ -2728,8 +2722,8 @@
         <f t="shared" si="7"/>
         <v>优购物,http://192.168.100.1:8888/udp/239.49.8.195:6000</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>64</v>
+      <c r="F68" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2751,11 +2745,11 @@
         <f t="shared" si="7"/>
         <v>196,http://192.168.100.1:8888/udp/239.49.8.196:6000</v>
       </c>
-      <c r="F69" s="4"/>
+      <c r="F69" s="6"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B70" s="4">
         <v>197</v>
@@ -2793,7 +2787,7 @@
         <f t="shared" si="7"/>
         <v>198,http://192.168.100.1:8888/udp/239.49.8.198:6000</v>
       </c>
-      <c r="F71" s="4"/>
+      <c r="F71" s="6"/>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4" t="s">
@@ -2814,7 +2808,7 @@
         <f t="shared" si="7"/>
         <v>199,http://192.168.100.1:8888/udp/239.49.8.199:6000</v>
       </c>
-      <c r="F72" s="4"/>
+      <c r="F72" s="6"/>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4" t="s">
@@ -2835,7 +2829,7 @@
         <f t="shared" si="7"/>
         <v>200,http://192.168.100.1:8888/udp/239.49.8.200:6000</v>
       </c>
-      <c r="F73" s="4"/>
+      <c r="F73" s="6"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4" t="s">
@@ -2856,11 +2850,11 @@
         <f t="shared" si="7"/>
         <v>201,http://192.168.100.1:8888/udp/239.49.8.201:6000</v>
       </c>
-      <c r="F74" s="4"/>
+      <c r="F74" s="6"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="4">
         <v>202</v>
@@ -2881,7 +2875,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B76" s="4">
         <v>203</v>
@@ -2902,7 +2896,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B77" s="4">
         <v>204</v>
@@ -2923,7 +2917,7 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B78" s="4">
         <v>205</v>
@@ -2940,13 +2934,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-3(4K),http://192.168.100.1:8888/udp/239.49.8.205:6000</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B79" s="4">
         <v>206</v>
@@ -2963,13 +2957,13 @@
         <f t="shared" si="7"/>
         <v>汽车频道(HD),http://192.168.100.1:8888/udp/239.49.8.206:6000</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B80" s="4">
         <v>207</v>
@@ -2986,13 +2980,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-4(4K),http://192.168.100.1:8888/udp/239.49.8.207:6000</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B81" s="4">
         <v>208</v>
@@ -3009,13 +3003,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-5(4K),http://192.168.100.1:8888/udp/239.49.8.208:6000</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="4">
         <v>209</v>
@@ -3053,7 +3047,7 @@
         <f t="shared" si="7"/>
         <v>210,http://192.168.100.1:8888/udp/239.49.8.210:6000</v>
       </c>
-      <c r="F83" s="4"/>
+      <c r="F83" s="6"/>
     </row>
     <row r="84" s="2" customFormat="1" spans="1:6">
       <c r="A84" s="4" t="s">
@@ -3074,11 +3068,11 @@
         <f t="shared" si="7"/>
         <v>211,http://192.168.100.1:8888/udp/239.49.8.211:6000</v>
       </c>
-      <c r="F84" s="4"/>
+      <c r="F84" s="6"/>
     </row>
     <row r="85" s="2" customFormat="1" spans="1:6">
       <c r="A85" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B85" s="4">
         <v>212</v>
@@ -3116,7 +3110,7 @@
         <f t="shared" si="7"/>
         <v>213,http://192.168.100.1:8888/udp/239.49.8.213:6000</v>
       </c>
-      <c r="F86" s="4"/>
+      <c r="F86" s="6"/>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4" t="s">
@@ -3137,7 +3131,7 @@
         <f t="shared" si="7"/>
         <v>214,http://192.168.100.1:8888/udp/239.49.8.214:6000</v>
       </c>
-      <c r="F87" s="4"/>
+      <c r="F87" s="6"/>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4" t="s">
@@ -3158,7 +3152,7 @@
         <f t="shared" si="7"/>
         <v>215,http://192.168.100.1:8888/udp/239.49.8.215:6000</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="6"/>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4" t="s">
@@ -3179,7 +3173,7 @@
         <f t="shared" si="7"/>
         <v>216,http://192.168.100.1:8888/udp/239.49.8.216:6000</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="6"/>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4" t="s">
@@ -3200,7 +3194,7 @@
         <f t="shared" si="7"/>
         <v>217,http://192.168.100.1:8888/udp/239.49.8.217:6000</v>
       </c>
-      <c r="F90" s="4"/>
+      <c r="F90" s="6"/>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4" t="s">
@@ -3221,7 +3215,7 @@
         <f t="shared" si="7"/>
         <v>218,http://192.168.100.1:8888/udp/239.49.8.218:6000</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="6"/>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4" t="s">
@@ -3242,7 +3236,7 @@
         <f t="shared" si="7"/>
         <v>219,http://192.168.100.1:8888/udp/239.49.8.219:6000</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="6"/>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="4" t="s">
@@ -3263,7 +3257,7 @@
         <f t="shared" si="7"/>
         <v>220,http://192.168.100.1:8888/udp/239.49.8.220:6000</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="6"/>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="4" t="s">
@@ -3284,11 +3278,11 @@
         <f t="shared" si="7"/>
         <v>221,http://192.168.100.1:8888/udp/239.49.8.221:6000</v>
       </c>
-      <c r="F94" s="4"/>
+      <c r="F94" s="6"/>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" s="4">
         <v>222</v>
@@ -3305,7 +3299,7 @@
         <f t="shared" si="7"/>
         <v>4K测试-6(4K),http://192.168.100.1:8888/udp/239.49.8.222:6000</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3328,7 +3322,7 @@
         <f t="shared" si="7"/>
         <v>223,http://192.168.100.1:8888/udp/239.49.8.223:6000</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="6"/>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="4" t="s">
@@ -3349,7 +3343,7 @@
         <f t="shared" si="7"/>
         <v>224,http://192.168.100.1:8888/udp/239.49.8.224:6000</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="6"/>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="4" t="s">
@@ -3370,7 +3364,7 @@
         <f t="shared" si="7"/>
         <v>225,http://192.168.100.1:8888/udp/239.49.8.225:6000</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="6"/>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="4" t="s">
@@ -3391,7 +3385,7 @@
         <f t="shared" ref="E99:E127" si="9">IF(A99="#",CONCATENATE(B99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"),CONCATENATE(A99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"))</f>
         <v>226,http://192.168.100.1:8888/udp/239.49.8.226:6000</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="6"/>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="4" t="s">
@@ -3412,7 +3406,7 @@
         <f t="shared" si="9"/>
         <v>227,http://192.168.100.1:8888/udp/239.49.8.227:6000</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="6"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="4" t="s">
@@ -3433,7 +3427,7 @@
         <f t="shared" si="9"/>
         <v>228,http://192.168.100.1:8888/udp/239.49.8.228:6000</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="6"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="4" t="s">
@@ -3454,7 +3448,7 @@
         <f t="shared" si="9"/>
         <v>229,http://192.168.100.1:8888/udp/239.49.8.229:6000</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="6"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="4" t="s">
@@ -3475,7 +3469,7 @@
         <f t="shared" si="9"/>
         <v>230,http://192.168.100.1:8888/udp/239.49.8.230:6000</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="6"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="4" t="s">
@@ -3496,7 +3490,7 @@
         <f t="shared" si="9"/>
         <v>231,http://192.168.100.1:8888/udp/239.49.8.231:6000</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="6"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="4" t="s">
@@ -3517,7 +3511,7 @@
         <f t="shared" si="9"/>
         <v>232,http://192.168.100.1:8888/udp/239.49.8.232:6000</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="6"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="4" t="s">
@@ -3538,7 +3532,7 @@
         <f t="shared" si="9"/>
         <v>233,http://192.168.100.1:8888/udp/239.49.8.233:6000</v>
       </c>
-      <c r="F106" s="4"/>
+      <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="4" t="s">
@@ -3559,7 +3553,7 @@
         <f t="shared" si="9"/>
         <v>234,http://192.168.100.1:8888/udp/239.49.8.234:6000</v>
       </c>
-      <c r="F107" s="4"/>
+      <c r="F107" s="6"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="4" t="s">
@@ -3580,7 +3574,7 @@
         <f t="shared" si="9"/>
         <v>235,http://192.168.100.1:8888/udp/239.49.8.235:6000</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="6"/>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="4" t="s">
@@ -3601,7 +3595,7 @@
         <f t="shared" si="9"/>
         <v>236,http://192.168.100.1:8888/udp/239.49.8.236:6000</v>
       </c>
-      <c r="F109" s="4"/>
+      <c r="F109" s="6"/>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="4" t="s">
@@ -3622,7 +3616,7 @@
         <f t="shared" si="9"/>
         <v>237,http://192.168.100.1:8888/udp/239.49.8.237:6000</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="4" t="s">
@@ -3643,7 +3637,7 @@
         <f t="shared" si="9"/>
         <v>238,http://192.168.100.1:8888/udp/239.49.8.238:6000</v>
       </c>
-      <c r="F111" s="4"/>
+      <c r="F111" s="6"/>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="4" t="s">
@@ -3664,7 +3658,7 @@
         <f t="shared" si="9"/>
         <v>239,http://192.168.100.1:8888/udp/239.49.8.239:6000</v>
       </c>
-      <c r="F112" s="4"/>
+      <c r="F112" s="6"/>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="4" t="s">
@@ -3685,7 +3679,7 @@
         <f t="shared" si="9"/>
         <v>240,http://192.168.100.1:8888/udp/239.49.8.240:6000</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="6"/>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="4" t="s">
@@ -3706,7 +3700,7 @@
         <f t="shared" si="9"/>
         <v>241,http://192.168.100.1:8888/udp/239.49.8.241:6000</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="6"/>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="4" t="s">
@@ -3727,7 +3721,7 @@
         <f t="shared" si="9"/>
         <v>242,http://192.168.100.1:8888/udp/239.49.8.242:6000</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="6"/>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="4" t="s">
@@ -3748,7 +3742,7 @@
         <f t="shared" si="9"/>
         <v>243,http://192.168.100.1:8888/udp/239.49.8.243:6000</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="6"/>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="4" t="s">
@@ -3769,7 +3763,7 @@
         <f t="shared" si="9"/>
         <v>244,http://192.168.100.1:8888/udp/239.49.8.244:6000</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="6"/>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="4" t="s">
@@ -3790,7 +3784,7 @@
         <f t="shared" si="9"/>
         <v>245,http://192.168.100.1:8888/udp/239.49.8.245:6000</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="6"/>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="4" t="s">
@@ -3811,7 +3805,7 @@
         <f t="shared" si="9"/>
         <v>246,http://192.168.100.1:8888/udp/239.49.8.246:6000</v>
       </c>
-      <c r="F119" s="4"/>
+      <c r="F119" s="6"/>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="4" t="s">
@@ -3832,7 +3826,7 @@
         <f t="shared" si="9"/>
         <v>247,http://192.168.100.1:8888/udp/239.49.8.247:6000</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="6"/>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="4" t="s">
@@ -3853,7 +3847,7 @@
         <f t="shared" si="9"/>
         <v>248,http://192.168.100.1:8888/udp/239.49.8.248:6000</v>
       </c>
-      <c r="F121" s="4"/>
+      <c r="F121" s="6"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="4" t="s">
@@ -3874,7 +3868,7 @@
         <f t="shared" si="9"/>
         <v>249,http://192.168.100.1:8888/udp/239.49.8.249:6000</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="6"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="4" t="s">
@@ -3895,7 +3889,7 @@
         <f t="shared" si="9"/>
         <v>250,http://192.168.100.1:8888/udp/239.49.8.250:6000</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="6"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="4" t="s">
@@ -3916,7 +3910,7 @@
         <f t="shared" si="9"/>
         <v>251,http://192.168.100.1:8888/udp/239.49.8.251:6000</v>
       </c>
-      <c r="F124" s="4"/>
+      <c r="F124" s="6"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="4" t="s">
@@ -3937,7 +3931,7 @@
         <f t="shared" si="9"/>
         <v>252,http://192.168.100.1:8888/udp/239.49.8.252:6000</v>
       </c>
-      <c r="F125" s="4"/>
+      <c r="F125" s="6"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="4" t="s">
@@ -3958,7 +3952,7 @@
         <f t="shared" si="9"/>
         <v>253,http://192.168.100.1:8888/udp/239.49.8.253:6000</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="6"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="4" t="s">
@@ -3979,7 +3973,7 @@
         <f t="shared" si="9"/>
         <v>254,http://192.168.100.1:8888/udp/239.49.8.254:6000</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F127">

--- a/江苏电信-组播-高清.xlsx
+++ b/江苏电信-组播-高清.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55A5864-1BAB-4396-BA9E-02FF324BB2B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7800"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -12,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$127</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="86">
   <si>
     <t>节目</t>
   </si>
@@ -106,51 +112,12 @@
     <t>忽略</t>
   </si>
   <si>
-    <t>游戏直播(HD)</t>
-  </si>
-  <si>
-    <t>英雄联盟(HD)</t>
-  </si>
-  <si>
-    <t>快乐购(HD)</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
-    <t>学而思网校1(HD)</t>
-  </si>
-  <si>
-    <t>学而思网校2(HD)</t>
-  </si>
-  <si>
-    <t>学而思网校3(HD)</t>
-  </si>
-  <si>
-    <t>学而思网校4(HD)</t>
-  </si>
-  <si>
     <t>CCTV-5(HD)</t>
   </si>
   <si>
-    <t>学而思网校5(HD)</t>
-  </si>
-  <si>
-    <t>学而思网校6(HD)</t>
-  </si>
-  <si>
-    <t>劲爆体育(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-1(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-2(HD)</t>
-  </si>
-  <si>
-    <t>BesTV-3(HD)</t>
-  </si>
-  <si>
     <t>辽宁卫视(HD)</t>
   </si>
   <si>
@@ -175,12 +142,6 @@
     <t>都市剧场(HD)</t>
   </si>
   <si>
-    <t>魅力音乐(HD)</t>
-  </si>
-  <si>
-    <t>欢笑剧场(HD)</t>
-  </si>
-  <si>
     <t>四川卫视(HD)</t>
   </si>
   <si>
@@ -208,9 +169,6 @@
     <t>贾汪新闻</t>
   </si>
   <si>
-    <t>普清</t>
-  </si>
-  <si>
     <t>苏州生活资讯</t>
   </si>
   <si>
@@ -247,20 +205,115 @@
     <t>海南卫视(HD)</t>
   </si>
   <si>
+    <t>云南卫视(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>4K测试-6(4K)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>体育彩票</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京影视</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京娱乐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京少儿</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢笑剧场(4K)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4K测试-7(4K)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试-3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播1(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播2(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播3(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播4(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播5(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播6(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播7(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播8(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播9(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽略</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>百事通直播10(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>魅力足球(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏直播1(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏直播2(HD)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,151 +341,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,200 +367,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -661,251 +391,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -928,65 +416,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1244,32 +688,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1796875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.6328125" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18" customHeight="1" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1310,7 +753,7 @@
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +774,7 @@
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +795,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1373,7 +816,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1394,7 +837,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1415,7 +858,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +879,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +900,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1478,7 +921,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -1499,7 +942,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +963,7 @@
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
@@ -1541,7 +984,7 @@
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1562,7 +1005,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1583,7 +1026,7 @@
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1604,7 +1047,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1625,7 +1068,7 @@
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -1646,7 +1089,7 @@
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -1667,7 +1110,7 @@
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -1688,7 +1131,7 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1152,7 @@
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1730,7 +1173,7 @@
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>27</v>
       </c>
@@ -1749,13 +1192,13 @@
         <f t="shared" si="2"/>
         <v>江苏导视(HD),http://192.168.100.1:8888/udp/239.49.8.150:6000</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>29</v>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="4">
         <v>151</v>
@@ -1766,19 +1209,19 @@
       </c>
       <c r="D24" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>游戏直播(HD),igmp://239.49.8.151:6000</v>
+        <v>游戏直播1(HD),igmp://239.49.8.151:6000</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>游戏直播(HD),http://192.168.100.1:8888/udp/239.49.8.151:6000</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>游戏直播1(HD),http://192.168.100.1:8888/udp/239.49.8.151:6000</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="4">
         <v>152</v>
@@ -1789,19 +1232,19 @@
       </c>
       <c r="D25" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>英雄联盟(HD),igmp://239.49.8.152:6000</v>
+        <v>游戏直播2(HD),igmp://239.49.8.152:6000</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>英雄联盟(HD),http://192.168.100.1:8888/udp/239.49.8.152:6000</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>游戏直播2(HD),http://192.168.100.1:8888/udp/239.49.8.152:6000</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="4">
         <v>153</v>
@@ -1812,19 +1255,19 @@
       </c>
       <c r="D26" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>快乐购(HD),igmp://239.49.8.153:6000</v>
+        <v>153,igmp://239.49.8.153:6000</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>快乐购(HD),http://192.168.100.1:8888/udp/239.49.8.153:6000</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>153,http://192.168.100.1:8888/udp/239.49.8.153:6000</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" s="4">
         <v>154</v>
@@ -1841,11 +1284,13 @@
         <f t="shared" si="2"/>
         <v>154,http://192.168.100.1:8888/udp/239.49.8.154:6000</v>
       </c>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B28" s="4">
         <v>155</v>
@@ -1856,17 +1301,19 @@
       </c>
       <c r="D28" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>155,igmp://239.49.8.155:6000</v>
+        <v>测试-1,igmp://239.49.8.155:6000</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>155,http://192.168.100.1:8888/udp/239.49.8.155:6000</v>
-      </c>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:6">
+        <v>测试-1,http://192.168.100.1:8888/udp/239.49.8.155:6000</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4">
         <v>156</v>
@@ -1883,11 +1330,13 @@
         <f t="shared" si="2"/>
         <v>156,http://192.168.100.1:8888/udp/239.49.8.156:6000</v>
       </c>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
+      <c r="F29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="B30" s="4">
         <v>157</v>
@@ -1898,17 +1347,19 @@
       </c>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>157,igmp://239.49.8.157:6000</v>
+        <v>测试-2,igmp://239.49.8.157:6000</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>157,http://192.168.100.1:8888/udp/239.49.8.157:6000</v>
-      </c>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>测试-2,http://192.168.100.1:8888/udp/239.49.8.157:6000</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>158</v>
@@ -1925,11 +1376,13 @@
         <f t="shared" si="2"/>
         <v>158,http://192.168.100.1:8888/udp/239.49.8.158:6000</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4">
         <v>159</v>
@@ -1946,11 +1399,13 @@
         <f t="shared" si="2"/>
         <v>159,http://192.168.100.1:8888/udp/239.49.8.159:6000</v>
       </c>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>33</v>
+      <c r="F32" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="B33" s="4">
         <v>160</v>
@@ -1961,17 +1416,19 @@
       </c>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>学而思网校1(HD),igmp://239.49.8.160:6000</v>
+        <v>百事通直播1(HD),igmp://239.49.8.160:6000</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>学而思网校1(HD),http://192.168.100.1:8888/udp/239.49.8.160:6000</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>34</v>
+        <v>百事通直播1(HD),http://192.168.100.1:8888/udp/239.49.8.160:6000</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="B34" s="4">
         <v>161</v>
@@ -1982,17 +1439,19 @@
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>学而思网校2(HD),igmp://239.49.8.161:6000</v>
+        <v>百事通直播2(HD),igmp://239.49.8.161:6000</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>学而思网校2(HD),http://192.168.100.1:8888/udp/239.49.8.161:6000</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
+        <v>百事通直播2(HD),http://192.168.100.1:8888/udp/239.49.8.161:6000</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="B35" s="4">
         <v>162</v>
@@ -2003,17 +1462,19 @@
       </c>
       <c r="D35" s="5" t="str">
         <f t="shared" ref="D35:D66" si="3">IF(A35="#",CONCATENATE(B35,",igmp://239.49.8.",B35,":6000"),CONCATENATE(A35,",igmp://239.49.8.",B35,":6000"))</f>
-        <v>学而思网校3(HD),igmp://239.49.8.162:6000</v>
+        <v>百事通直播3(HD),igmp://239.49.8.162:6000</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" ref="E35:E66" si="4">IF(A35="#",CONCATENATE(B35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"),CONCATENATE(A35,",http://192.168.100.1:8888/udp/239.49.8.",B35,":6000"))</f>
-        <v>学而思网校3(HD),http://192.168.100.1:8888/udp/239.49.8.162:6000</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>36</v>
+        <v>百事通直播3(HD),http://192.168.100.1:8888/udp/239.49.8.162:6000</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B36" s="4">
         <v>163</v>
@@ -2024,17 +1485,19 @@
       </c>
       <c r="D36" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>学而思网校4(HD),igmp://239.49.8.163:6000</v>
+        <v>百事通直播4(HD),igmp://239.49.8.163:6000</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>学而思网校4(HD),http://192.168.100.1:8888/udp/239.49.8.163:6000</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>37</v>
+        <v>百事通直播4(HD),http://192.168.100.1:8888/udp/239.49.8.163:6000</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="B37" s="4">
         <v>164</v>
@@ -2045,17 +1508,19 @@
       </c>
       <c r="D37" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>CCTV-5(HD),igmp://239.49.8.164:6000</v>
+        <v>百事通直播5(HD),igmp://239.49.8.164:6000</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>CCTV-5(HD),http://192.168.100.1:8888/udp/239.49.8.164:6000</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>38</v>
+        <v>百事通直播5(HD),http://192.168.100.1:8888/udp/239.49.8.164:6000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B38" s="4">
         <v>165</v>
@@ -2066,17 +1531,19 @@
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>学而思网校5(HD),igmp://239.49.8.165:6000</v>
+        <v>百事通直播6(HD),igmp://239.49.8.165:6000</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>学而思网校5(HD),http://192.168.100.1:8888/udp/239.49.8.165:6000</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>39</v>
+        <v>百事通直播6(HD),http://192.168.100.1:8888/udp/239.49.8.165:6000</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B39" s="4">
         <v>166</v>
@@ -2087,17 +1554,19 @@
       </c>
       <c r="D39" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>学而思网校6(HD),igmp://239.49.8.166:6000</v>
+        <v>百事通直播7(HD),igmp://239.49.8.166:6000</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>学而思网校6(HD),http://192.168.100.1:8888/udp/239.49.8.166:6000</v>
-      </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6">
+        <v>百事通直播7(HD),http://192.168.100.1:8888/udp/239.49.8.166:6000</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B40" s="4">
         <v>167</v>
@@ -2114,11 +1583,13 @@
         <f t="shared" si="4"/>
         <v>167,http://192.168.100.1:8888/udp/239.49.8.167:6000</v>
       </c>
-      <c r="F40" s="6"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="4" t="s">
-        <v>40</v>
+      <c r="F40" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="B41" s="4">
         <v>168</v>
@@ -2129,17 +1600,19 @@
       </c>
       <c r="D41" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>劲爆体育(HD),igmp://239.49.8.168:6000</v>
+        <v>168,igmp://239.49.8.168:6000</v>
       </c>
       <c r="E41" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>劲爆体育(HD),http://192.168.100.1:8888/udp/239.49.8.168:6000</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="4" t="s">
-        <v>41</v>
+        <v>168,http://192.168.100.1:8888/udp/239.49.8.168:6000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="B42" s="4">
         <v>169</v>
@@ -2150,19 +1623,19 @@
       </c>
       <c r="D42" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-1(HD),igmp://239.49.8.169:6000</v>
+        <v>百事通直播8(HD),igmp://239.49.8.169:6000</v>
       </c>
       <c r="E42" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-1(HD),http://192.168.100.1:8888/udp/239.49.8.169:6000</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>百事通直播8(HD),http://192.168.100.1:8888/udp/239.49.8.169:6000</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B43" s="4">
         <v>170</v>
@@ -2181,9 +1654,9 @@
       </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>42</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B44" s="4">
         <v>171</v>
@@ -2194,19 +1667,19 @@
       </c>
       <c r="D44" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-2(HD),igmp://239.49.8.171:6000</v>
+        <v>百事通直播9(HD),igmp://239.49.8.171:6000</v>
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-2(HD),http://192.168.100.1:8888/udp/239.49.8.171:6000</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>百事通直播9(HD),http://192.168.100.1:8888/udp/239.49.8.171:6000</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B45" s="4">
         <v>172</v>
@@ -2217,19 +1690,19 @@
       </c>
       <c r="D45" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>BesTV-3(HD),igmp://239.49.8.172:6000</v>
+        <v>百事通直播10(HD),igmp://239.49.8.172:6000</v>
       </c>
       <c r="E45" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>BesTV-3(HD),http://192.168.100.1:8888/udp/239.49.8.172:6000</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>百事通直播10(HD),http://192.168.100.1:8888/udp/239.49.8.172:6000</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B46" s="4">
         <v>173</v>
@@ -2248,9 +1721,9 @@
       </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B47" s="4">
         <v>174</v>
@@ -2269,9 +1742,9 @@
       </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B48" s="4">
         <v>175</v>
@@ -2290,9 +1763,9 @@
       </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B49" s="4">
         <v>176</v>
@@ -2309,13 +1782,13 @@
         <f t="shared" si="4"/>
         <v>游戏风云(HD),http://192.168.100.1:8888/udp/239.49.8.176:6000</v>
       </c>
-      <c r="F49" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B50" s="4">
         <v>177</v>
@@ -2332,13 +1805,13 @@
         <f t="shared" si="4"/>
         <v>幸福彩(HD),http://192.168.100.1:8888/udp/239.49.8.177:6000</v>
       </c>
-      <c r="F50" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B51" s="4">
         <v>178</v>
@@ -2357,9 +1830,9 @@
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B52" s="4">
         <v>179</v>
@@ -2378,9 +1851,9 @@
       </c>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B53" s="4">
         <v>180</v>
@@ -2399,9 +1872,9 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>52</v>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="B54" s="4">
         <v>181</v>
@@ -2412,17 +1885,17 @@
       </c>
       <c r="D54" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>魅力音乐(HD),igmp://239.49.8.181:6000</v>
+        <v>魅力足球(HD),igmp://239.49.8.181:6000</v>
       </c>
       <c r="E54" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>魅力音乐(HD),http://192.168.100.1:8888/udp/239.49.8.181:6000</v>
+        <v>魅力足球(HD),http://192.168.100.1:8888/udp/239.49.8.181:6000</v>
       </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>53</v>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B55" s="4">
         <v>182</v>
@@ -2433,17 +1906,17 @@
       </c>
       <c r="D55" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>欢笑剧场(HD),igmp://239.49.8.182:6000</v>
+        <v>欢笑剧场(4K),igmp://239.49.8.182:6000</v>
       </c>
       <c r="E55" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>欢笑剧场(HD),http://192.168.100.1:8888/udp/239.49.8.182:6000</v>
+        <v>欢笑剧场(4K),http://192.168.100.1:8888/udp/239.49.8.182:6000</v>
       </c>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B56" s="4">
         <v>183</v>
@@ -2460,11 +1933,13 @@
         <f t="shared" si="4"/>
         <v>183,http://192.168.100.1:8888/udp/239.49.8.183:6000</v>
       </c>
-      <c r="F56" s="6"/>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="F56" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B57" s="4">
         <v>184</v>
@@ -2483,9 +1958,9 @@
       </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B58" s="4">
         <v>185</v>
@@ -2504,9 +1979,9 @@
       </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B59" s="4">
         <v>186</v>
@@ -2525,9 +2000,9 @@
       </c>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B60" s="4">
         <v>187</v>
@@ -2546,9 +2021,9 @@
       </c>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B61" s="4">
         <v>188</v>
@@ -2567,9 +2042,9 @@
       </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B62" s="4">
         <v>189</v>
@@ -2588,9 +2063,9 @@
       </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B63" s="4">
         <v>190</v>
@@ -2607,13 +2082,13 @@
         <f t="shared" si="4"/>
         <v>190,http://192.168.100.1:8888/udp/239.49.8.190:6000</v>
       </c>
-      <c r="F63" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B64" s="4">
         <v>191</v>
@@ -2630,13 +2105,13 @@
         <f t="shared" si="4"/>
         <v>4K测试-1(4K),http://192.168.100.1:8888/udp/239.49.8.191:6000</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B65" s="4">
         <v>192</v>
@@ -2653,13 +2128,13 @@
         <f t="shared" si="4"/>
         <v>4K测试-2(4K),http://192.168.100.1:8888/udp/239.49.8.192:6000</v>
       </c>
-      <c r="F65" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B66" s="4">
         <v>193</v>
@@ -2676,19 +2151,19 @@
         <f t="shared" si="4"/>
         <v>贾汪新闻,http://192.168.100.1:8888/udp/239.49.8.193:6000</v>
       </c>
-      <c r="F66" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="F66" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B67" s="4">
         <v>194</v>
       </c>
       <c r="C67" s="5" t="str">
-        <f t="shared" ref="C67:C130" si="5">CONCATENATE("igmp://239.49.8.",B67,":6000")</f>
+        <f t="shared" ref="C67:C127" si="5">CONCATENATE("igmp://239.49.8.",B67,":6000")</f>
         <v>igmp://239.49.8.194:6000</v>
       </c>
       <c r="D67" s="5" t="str">
@@ -2699,13 +2174,13 @@
         <f t="shared" ref="E67:E98" si="7">IF(A67="#",CONCATENATE(B67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"),CONCATENATE(A67,",http://192.168.100.1:8888/udp/239.49.8.",B67,":6000"))</f>
         <v>苏州生活资讯,http://192.168.100.1:8888/udp/239.49.8.194:6000</v>
       </c>
-      <c r="F67" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B68" s="4">
         <v>195</v>
@@ -2722,13 +2197,13 @@
         <f t="shared" si="7"/>
         <v>优购物,http://192.168.100.1:8888/udp/239.49.8.195:6000</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B69" s="4">
         <v>196</v>
@@ -2745,11 +2220,13 @@
         <f t="shared" si="7"/>
         <v>196,http://192.168.100.1:8888/udp/239.49.8.196:6000</v>
       </c>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B70" s="4">
         <v>197</v>
@@ -2768,9 +2245,9 @@
       </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B71" s="4">
         <v>198</v>
@@ -2787,11 +2264,13 @@
         <f t="shared" si="7"/>
         <v>198,http://192.168.100.1:8888/udp/239.49.8.198:6000</v>
       </c>
-      <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B72" s="4">
         <v>199</v>
@@ -2808,11 +2287,13 @@
         <f t="shared" si="7"/>
         <v>199,http://192.168.100.1:8888/udp/239.49.8.199:6000</v>
       </c>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B73" s="4">
         <v>200</v>
@@ -2829,11 +2310,13 @@
         <f t="shared" si="7"/>
         <v>200,http://192.168.100.1:8888/udp/239.49.8.200:6000</v>
       </c>
-      <c r="F73" s="6"/>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B74" s="4">
         <v>201</v>
@@ -2850,11 +2333,13 @@
         <f t="shared" si="7"/>
         <v>201,http://192.168.100.1:8888/udp/239.49.8.201:6000</v>
       </c>
-      <c r="F74" s="6"/>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="B75" s="4">
         <v>202</v>
@@ -2873,9 +2358,9 @@
       </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B76" s="4">
         <v>203</v>
@@ -2894,9 +2379,9 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B77" s="4">
         <v>204</v>
@@ -2915,9 +2400,9 @@
       </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B78" s="4">
         <v>205</v>
@@ -2934,13 +2419,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-3(4K),http://192.168.100.1:8888/udp/239.49.8.205:6000</v>
       </c>
-      <c r="F78" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="B79" s="4">
         <v>206</v>
@@ -2957,13 +2442,13 @@
         <f t="shared" si="7"/>
         <v>汽车频道(HD),http://192.168.100.1:8888/udp/239.49.8.206:6000</v>
       </c>
-      <c r="F79" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B80" s="4">
         <v>207</v>
@@ -2980,13 +2465,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-4(4K),http://192.168.100.1:8888/udp/239.49.8.207:6000</v>
       </c>
-      <c r="F80" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B81" s="4">
         <v>208</v>
@@ -3003,13 +2488,13 @@
         <f t="shared" si="7"/>
         <v>4K测试-5(4K),http://192.168.100.1:8888/udp/239.49.8.208:6000</v>
       </c>
-      <c r="F81" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B82" s="4">
         <v>209</v>
@@ -3028,9 +2513,9 @@
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B83" s="4">
         <v>210</v>
@@ -3047,11 +2532,13 @@
         <f t="shared" si="7"/>
         <v>210,http://192.168.100.1:8888/udp/239.49.8.210:6000</v>
       </c>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" s="2" customFormat="1" spans="1:6">
-      <c r="A84" s="4" t="s">
-        <v>32</v>
+      <c r="F83" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B84" s="4">
         <v>211</v>
@@ -3062,17 +2549,19 @@
       </c>
       <c r="D84" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>211,igmp://239.49.8.211:6000</v>
+        <v>4K测试-6(4K),igmp://239.49.8.211:6000</v>
       </c>
       <c r="E84" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>211,http://192.168.100.1:8888/udp/239.49.8.211:6000</v>
-      </c>
-      <c r="F84" s="6"/>
-    </row>
-    <row r="85" s="2" customFormat="1" spans="1:6">
+        <v>4K测试-6(4K),http://192.168.100.1:8888/udp/239.49.8.211:6000</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B85" s="4">
         <v>212</v>
@@ -3091,9 +2580,9 @@
       </c>
       <c r="F85" s="4"/>
     </row>
-    <row r="86" s="2" customFormat="1" spans="1:6">
-      <c r="A86" s="4" t="s">
-        <v>32</v>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="B86" s="4">
         <v>213</v>
@@ -3104,17 +2593,19 @@
       </c>
       <c r="D86" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>213,igmp://239.49.8.213:6000</v>
+        <v>体育彩票,igmp://239.49.8.213:6000</v>
       </c>
       <c r="E86" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>213,http://192.168.100.1:8888/udp/239.49.8.213:6000</v>
-      </c>
-      <c r="F86" s="6"/>
-    </row>
-    <row r="87" spans="1:6">
+        <v>体育彩票,http://192.168.100.1:8888/udp/239.49.8.213:6000</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B87" s="4">
         <v>214</v>
@@ -3131,11 +2622,13 @@
         <f t="shared" si="7"/>
         <v>214,http://192.168.100.1:8888/udp/239.49.8.214:6000</v>
       </c>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B88" s="4">
         <v>215</v>
@@ -3152,11 +2645,13 @@
         <f t="shared" si="7"/>
         <v>215,http://192.168.100.1:8888/udp/239.49.8.215:6000</v>
       </c>
-      <c r="F88" s="6"/>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B89" s="4">
         <v>216</v>
@@ -3173,11 +2668,13 @@
         <f t="shared" si="7"/>
         <v>216,http://192.168.100.1:8888/udp/239.49.8.216:6000</v>
       </c>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="F89" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B90" s="4">
         <v>217</v>
@@ -3194,11 +2691,13 @@
         <f t="shared" si="7"/>
         <v>217,http://192.168.100.1:8888/udp/239.49.8.217:6000</v>
       </c>
-      <c r="F90" s="6"/>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="F90" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B91" s="4">
         <v>218</v>
@@ -3215,11 +2714,13 @@
         <f t="shared" si="7"/>
         <v>218,http://192.168.100.1:8888/udp/239.49.8.218:6000</v>
       </c>
-      <c r="F91" s="6"/>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="F91" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B92" s="4">
         <v>219</v>
@@ -3236,11 +2737,13 @@
         <f t="shared" si="7"/>
         <v>219,http://192.168.100.1:8888/udp/239.49.8.219:6000</v>
       </c>
-      <c r="F92" s="6"/>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="F92" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B93" s="4">
         <v>220</v>
@@ -3257,11 +2760,13 @@
         <f t="shared" si="7"/>
         <v>220,http://192.168.100.1:8888/udp/239.49.8.220:6000</v>
       </c>
-      <c r="F93" s="6"/>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="F93" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B94" s="4">
         <v>221</v>
@@ -3278,11 +2783,13 @@
         <f t="shared" si="7"/>
         <v>221,http://192.168.100.1:8888/udp/239.49.8.221:6000</v>
       </c>
-      <c r="F94" s="6"/>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="4" t="s">
-        <v>76</v>
+      <c r="F94" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="B95" s="4">
         <v>222</v>
@@ -3293,19 +2800,19 @@
       </c>
       <c r="D95" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>4K测试-6(4K),igmp://239.49.8.222:6000</v>
+        <v>4K测试-7(4K),igmp://239.49.8.222:6000</v>
       </c>
       <c r="E95" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>4K测试-6(4K),http://192.168.100.1:8888/udp/239.49.8.222:6000</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>4K测试-7(4K),http://192.168.100.1:8888/udp/239.49.8.222:6000</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B96" s="4">
         <v>223</v>
@@ -3322,11 +2829,13 @@
         <f t="shared" si="7"/>
         <v>223,http://192.168.100.1:8888/udp/239.49.8.223:6000</v>
       </c>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="F96" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B97" s="4">
         <v>224</v>
@@ -3343,11 +2852,13 @@
         <f t="shared" si="7"/>
         <v>224,http://192.168.100.1:8888/udp/239.49.8.224:6000</v>
       </c>
-      <c r="F97" s="6"/>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="F97" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B98" s="4">
         <v>225</v>
@@ -3364,11 +2875,13 @@
         <f t="shared" si="7"/>
         <v>225,http://192.168.100.1:8888/udp/239.49.8.225:6000</v>
       </c>
-      <c r="F98" s="6"/>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="4" t="s">
-        <v>32</v>
+      <c r="F98" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="B99" s="4">
         <v>226</v>
@@ -3379,17 +2892,19 @@
       </c>
       <c r="D99" s="5" t="str">
         <f t="shared" ref="D99:D127" si="8">IF(A99="#",CONCATENATE(B99,",igmp://239.49.8.",B99,":6000"),CONCATENATE(A99,",igmp://239.49.8.",B99,":6000"))</f>
-        <v>226,igmp://239.49.8.226:6000</v>
+        <v>测试-3,igmp://239.49.8.226:6000</v>
       </c>
       <c r="E99" s="5" t="str">
         <f t="shared" ref="E99:E127" si="9">IF(A99="#",CONCATENATE(B99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"),CONCATENATE(A99,",http://192.168.100.1:8888/udp/239.49.8.",B99,":6000"))</f>
-        <v>226,http://192.168.100.1:8888/udp/239.49.8.226:6000</v>
-      </c>
-      <c r="F99" s="6"/>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="4" t="s">
-        <v>32</v>
+        <v>测试-3,http://192.168.100.1:8888/udp/239.49.8.226:6000</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="B100" s="4">
         <v>227</v>
@@ -3400,17 +2915,17 @@
       </c>
       <c r="D100" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>227,igmp://239.49.8.227:6000</v>
+        <v>云南卫视(HD),igmp://239.49.8.227:6000</v>
       </c>
       <c r="E100" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>227,http://192.168.100.1:8888/udp/239.49.8.227:6000</v>
-      </c>
-      <c r="F100" s="6"/>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="4" t="s">
-        <v>32</v>
+        <v>云南卫视(HD),http://192.168.100.1:8888/udp/239.49.8.227:6000</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="B101" s="4">
         <v>228</v>
@@ -3421,17 +2936,19 @@
       </c>
       <c r="D101" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>228,igmp://239.49.8.228:6000</v>
+        <v>南京影视,igmp://239.49.8.228:6000</v>
       </c>
       <c r="E101" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>228,http://192.168.100.1:8888/udp/239.49.8.228:6000</v>
-      </c>
-      <c r="F101" s="6"/>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="4" t="s">
-        <v>32</v>
+        <v>南京影视,http://192.168.100.1:8888/udp/239.49.8.228:6000</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B102" s="4">
         <v>229</v>
@@ -3442,17 +2959,19 @@
       </c>
       <c r="D102" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>229,igmp://239.49.8.229:6000</v>
+        <v>南京娱乐,igmp://239.49.8.229:6000</v>
       </c>
       <c r="E102" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>229,http://192.168.100.1:8888/udp/239.49.8.229:6000</v>
-      </c>
-      <c r="F102" s="6"/>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="4" t="s">
-        <v>32</v>
+        <v>南京娱乐,http://192.168.100.1:8888/udp/239.49.8.229:6000</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="B103" s="4">
         <v>230</v>
@@ -3463,17 +2982,19 @@
       </c>
       <c r="D103" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>230,igmp://239.49.8.230:6000</v>
+        <v>南京少儿,igmp://239.49.8.230:6000</v>
       </c>
       <c r="E103" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>230,http://192.168.100.1:8888/udp/239.49.8.230:6000</v>
-      </c>
-      <c r="F103" s="6"/>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" s="4" t="s">
-        <v>32</v>
+        <v>南京少儿,http://192.168.100.1:8888/udp/239.49.8.230:6000</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="B104" s="4">
         <v>231</v>
@@ -3484,17 +3005,17 @@
       </c>
       <c r="D104" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>231,igmp://239.49.8.231:6000</v>
+        <v>欢笑剧场(4K),igmp://239.49.8.231:6000</v>
       </c>
       <c r="E104" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>231,http://192.168.100.1:8888/udp/239.49.8.231:6000</v>
-      </c>
-      <c r="F104" s="6"/>
-    </row>
-    <row r="105" spans="1:6">
+        <v>欢笑剧场(4K),http://192.168.100.1:8888/udp/239.49.8.231:6000</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B105" s="4">
         <v>232</v>
@@ -3511,11 +3032,13 @@
         <f t="shared" si="9"/>
         <v>232,http://192.168.100.1:8888/udp/239.49.8.232:6000</v>
       </c>
-      <c r="F105" s="6"/>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="F105" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B106" s="4">
         <v>233</v>
@@ -3532,11 +3055,13 @@
         <f t="shared" si="9"/>
         <v>233,http://192.168.100.1:8888/udp/239.49.8.233:6000</v>
       </c>
-      <c r="F106" s="6"/>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="F106" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B107" s="4">
         <v>234</v>
@@ -3553,11 +3078,13 @@
         <f t="shared" si="9"/>
         <v>234,http://192.168.100.1:8888/udp/239.49.8.234:6000</v>
       </c>
-      <c r="F107" s="6"/>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="F107" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B108" s="4">
         <v>235</v>
@@ -3574,11 +3101,13 @@
         <f t="shared" si="9"/>
         <v>235,http://192.168.100.1:8888/udp/239.49.8.235:6000</v>
       </c>
-      <c r="F108" s="6"/>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="F108" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B109" s="4">
         <v>236</v>
@@ -3595,11 +3124,13 @@
         <f t="shared" si="9"/>
         <v>236,http://192.168.100.1:8888/udp/239.49.8.236:6000</v>
       </c>
-      <c r="F109" s="6"/>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="F109" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B110" s="4">
         <v>237</v>
@@ -3616,11 +3147,13 @@
         <f t="shared" si="9"/>
         <v>237,http://192.168.100.1:8888/udp/239.49.8.237:6000</v>
       </c>
-      <c r="F110" s="6"/>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="F110" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B111" s="4">
         <v>238</v>
@@ -3637,11 +3170,13 @@
         <f t="shared" si="9"/>
         <v>238,http://192.168.100.1:8888/udp/239.49.8.238:6000</v>
       </c>
-      <c r="F111" s="6"/>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="F111" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B112" s="4">
         <v>239</v>
@@ -3658,11 +3193,13 @@
         <f t="shared" si="9"/>
         <v>239,http://192.168.100.1:8888/udp/239.49.8.239:6000</v>
       </c>
-      <c r="F112" s="6"/>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="F112" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B113" s="4">
         <v>240</v>
@@ -3679,11 +3216,13 @@
         <f t="shared" si="9"/>
         <v>240,http://192.168.100.1:8888/udp/239.49.8.240:6000</v>
       </c>
-      <c r="F113" s="6"/>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="F113" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B114" s="4">
         <v>241</v>
@@ -3700,11 +3239,13 @@
         <f t="shared" si="9"/>
         <v>241,http://192.168.100.1:8888/udp/239.49.8.241:6000</v>
       </c>
-      <c r="F114" s="6"/>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="F114" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B115" s="4">
         <v>242</v>
@@ -3721,11 +3262,13 @@
         <f t="shared" si="9"/>
         <v>242,http://192.168.100.1:8888/udp/239.49.8.242:6000</v>
       </c>
-      <c r="F115" s="6"/>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="F115" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B116" s="4">
         <v>243</v>
@@ -3742,11 +3285,13 @@
         <f t="shared" si="9"/>
         <v>243,http://192.168.100.1:8888/udp/239.49.8.243:6000</v>
       </c>
-      <c r="F116" s="6"/>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="F116" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B117" s="4">
         <v>244</v>
@@ -3763,11 +3308,13 @@
         <f t="shared" si="9"/>
         <v>244,http://192.168.100.1:8888/udp/239.49.8.244:6000</v>
       </c>
-      <c r="F117" s="6"/>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="F117" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B118" s="4">
         <v>245</v>
@@ -3784,11 +3331,13 @@
         <f t="shared" si="9"/>
         <v>245,http://192.168.100.1:8888/udp/239.49.8.245:6000</v>
       </c>
-      <c r="F118" s="6"/>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="F118" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B119" s="4">
         <v>246</v>
@@ -3805,11 +3354,13 @@
         <f t="shared" si="9"/>
         <v>246,http://192.168.100.1:8888/udp/239.49.8.246:6000</v>
       </c>
-      <c r="F119" s="6"/>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="F119" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B120" s="4">
         <v>247</v>
@@ -3826,11 +3377,13 @@
         <f t="shared" si="9"/>
         <v>247,http://192.168.100.1:8888/udp/239.49.8.247:6000</v>
       </c>
-      <c r="F120" s="6"/>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="F120" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B121" s="4">
         <v>248</v>
@@ -3847,11 +3400,13 @@
         <f t="shared" si="9"/>
         <v>248,http://192.168.100.1:8888/udp/239.49.8.248:6000</v>
       </c>
-      <c r="F121" s="6"/>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="F121" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B122" s="4">
         <v>249</v>
@@ -3868,11 +3423,13 @@
         <f t="shared" si="9"/>
         <v>249,http://192.168.100.1:8888/udp/239.49.8.249:6000</v>
       </c>
-      <c r="F122" s="6"/>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="F122" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B123" s="4">
         <v>250</v>
@@ -3889,11 +3446,13 @@
         <f t="shared" si="9"/>
         <v>250,http://192.168.100.1:8888/udp/239.49.8.250:6000</v>
       </c>
-      <c r="F123" s="6"/>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="F123" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B124" s="4">
         <v>251</v>
@@ -3910,11 +3469,13 @@
         <f t="shared" si="9"/>
         <v>251,http://192.168.100.1:8888/udp/239.49.8.251:6000</v>
       </c>
-      <c r="F124" s="6"/>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="F124" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B125" s="4">
         <v>252</v>
@@ -3931,11 +3492,13 @@
         <f t="shared" si="9"/>
         <v>252,http://192.168.100.1:8888/udp/239.49.8.252:6000</v>
       </c>
-      <c r="F125" s="6"/>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="F125" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B126" s="4">
         <v>253</v>
@@ -3952,11 +3515,13 @@
         <f t="shared" si="9"/>
         <v>253,http://192.168.100.1:8888/udp/239.49.8.253:6000</v>
       </c>
-      <c r="F126" s="6"/>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="F126" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B127" s="4">
         <v>254</v>
@@ -3973,13 +3538,14 @@
         <f t="shared" si="9"/>
         <v>254,http://192.168.100.1:8888/udp/239.49.8.254:6000</v>
       </c>
-      <c r="F127" s="6"/>
+      <c r="F127" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F127">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F127" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>